--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_1_24.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_1_24.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1688098.535794738</v>
+        <v>1763628.205459543</v>
       </c>
     </row>
     <row r="7">
@@ -656,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>212.1370054753146</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -671,13 +673,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>46.69972942218465</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -789,7 +791,7 @@
         <v>156.5912426325231</v>
       </c>
       <c r="T3" t="n">
-        <v>196.8897623984489</v>
+        <v>196.8897623984484</v>
       </c>
       <c r="U3" t="n">
         <v>225.8879277888686</v>
@@ -814,10 +816,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -826,19 +828,19 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>18.43980341797959</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -871,10 +873,10 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>26.18618792065453</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -899,22 +901,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>165.8778138349999</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>98.63122914173753</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -950,7 +952,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -959,10 +961,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1096,28 +1098,28 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>160.4740936944298</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>230.2634979541061</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1133,7 +1135,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>29.94054416507941</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1142,7 +1144,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>413.784170020795</v>
@@ -1151,7 +1153,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481162</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1187,13 +1189,13 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>315.8918199023635</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1227,10 +1229,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250816</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229327</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1291,22 +1293,22 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>125.3787979092682</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1333,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491425</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1354,10 +1356,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>176.025135643886</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1388,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051975</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385011</v>
       </c>
       <c r="U11" t="n">
         <v>251.078595249801</v>
@@ -1467,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1594,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>174.3062600431766</v>
+        <v>174.3062600431768</v>
       </c>
     </row>
     <row r="14">
@@ -1625,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1704,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,16 +1764,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0.7644211441605784</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1810,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1831,7 +1833,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>174.3062600431768</v>
       </c>
     </row>
     <row r="17">
@@ -1847,7 +1849,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206827</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1999,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>24.24103118633065</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>144.72782424709</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,25 +2049,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2099,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2178,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,19 +2238,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2287,25 +2289,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>95.02525064967651</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2372,10 +2374,10 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U23" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701337</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2473,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2488,13 +2490,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>26.97444673954864</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2530,7 +2532,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2539,7 +2541,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>35.85948444767448</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2609,10 +2611,10 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U26" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952497999</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2710,13 +2712,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -2728,10 +2730,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>44.42232944954184</v>
+        <v>100.7073868051476</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -2855,7 +2857,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2956,19 +2958,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>122.2151751544596</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3007,13 +3009,13 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>161.1706059301403</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3044,10 +3046,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H32" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527396</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3193,19 +3195,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>106.2810332792919</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3235,16 +3237,16 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3281,7 +3283,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H35" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
         <v>81.77913505274077</v>
@@ -3421,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -3433,7 +3435,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>166.4935684633776</v>
@@ -3442,7 +3444,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3478,19 +3480,19 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>71.3178920518982</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>174.3062600431768</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3518,7 +3520,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H38" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
         <v>81.77913505274077</v>
@@ -3664,19 +3666,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>147.1163355383943</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3715,19 +3717,19 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>57.64843562452423</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3737,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3791,7 +3793,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U41" t="n">
         <v>251.078595249801</v>
@@ -3895,10 +3897,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>37.22689894156116</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -3910,13 +3912,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3964,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>115.9747399561817</v>
       </c>
     </row>
     <row r="44">
@@ -3995,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4132,13 +4134,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -4153,7 +4155,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>221.5475610583892</v>
@@ -4192,7 +4194,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>140.5678108961688</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -4201,7 +4203,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>63.1779444490595</v>
       </c>
     </row>
   </sheetData>
@@ -4304,34 +4306,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1206.080506218543</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="C2" t="n">
-        <v>837.1179892781316</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="D2" t="n">
-        <v>478.8522906713811</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="E2" t="n">
-        <v>478.8522906713811</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F2" t="n">
-        <v>67.86638588177355</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
         <v>881.2824271224076</v>
@@ -4352,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2697.149091018222</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2366.086203674652</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="W2" t="n">
-        <v>2013.317548404538</v>
+        <v>1640.777806202926</v>
       </c>
       <c r="X2" t="n">
-        <v>1639.851790143458</v>
+        <v>1640.777806202926</v>
       </c>
       <c r="Y2" t="n">
-        <v>1592.680346282665</v>
+        <v>1250.638474227114</v>
       </c>
     </row>
     <row r="3">
@@ -4383,19 +4385,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G3" t="n">
         <v>221.4284102424006</v>
@@ -4416,16 +4418,16 @@
         <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4437,13 +4439,13 @@
         <v>2488.762748073963</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207638</v>
@@ -4462,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>235.9284171545818</v>
+        <v>709.502920147869</v>
       </c>
       <c r="C4" t="n">
-        <v>235.9284171545818</v>
+        <v>540.5667372199621</v>
       </c>
       <c r="D4" t="n">
-        <v>235.9284171545818</v>
+        <v>540.5667372199621</v>
       </c>
       <c r="E4" t="n">
-        <v>235.9284171545818</v>
+        <v>540.5667372199621</v>
       </c>
       <c r="F4" t="n">
-        <v>235.9284171545818</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="G4" t="n">
-        <v>235.9284171545818</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="H4" t="n">
-        <v>235.9284171545818</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I4" t="n">
-        <v>99.5995062532301</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600564</v>
+        <v>709.502920147869</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600564</v>
+        <v>709.502920147869</v>
       </c>
       <c r="S4" t="n">
-        <v>698.7120650600564</v>
+        <v>709.502920147869</v>
       </c>
       <c r="T4" t="n">
-        <v>698.7120650600564</v>
+        <v>709.502920147869</v>
       </c>
       <c r="U4" t="n">
-        <v>672.2613701907084</v>
+        <v>709.502920147869</v>
       </c>
       <c r="V4" t="n">
-        <v>417.5768819848215</v>
+        <v>709.502920147869</v>
       </c>
       <c r="W4" t="n">
-        <v>417.5768819848215</v>
+        <v>709.502920147869</v>
       </c>
       <c r="X4" t="n">
-        <v>417.5768819848215</v>
+        <v>709.502920147869</v>
       </c>
       <c r="Y4" t="n">
-        <v>417.5768819848215</v>
+        <v>709.502920147869</v>
       </c>
     </row>
     <row r="5">
@@ -4541,31 +4543,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>799.8716139843721</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="C5" t="n">
-        <v>799.8716139843721</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="D5" t="n">
-        <v>632.3182666762914</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="E5" t="n">
-        <v>632.3182666762914</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="F5" t="n">
-        <v>625.3727659270879</v>
+        <v>898.729014069748</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>480.7652059679349</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>153.5704860039377</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733127</v>
@@ -4598,19 +4600,19 @@
         <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2247.308246834948</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V5" t="n">
-        <v>1916.245359491378</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W5" t="n">
-        <v>1563.476704221264</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X5" t="n">
-        <v>1190.010945960184</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="Y5" t="n">
-        <v>799.8716139843721</v>
+        <v>1309.714918859356</v>
       </c>
     </row>
     <row r="6">
@@ -4620,55 +4622,55 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417901</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
         <v>2488.762748073963</v>
@@ -4683,10 +4685,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4744,25 +4746,25 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S7" t="n">
-        <v>513.8405610245972</v>
+        <v>536.6170209242687</v>
       </c>
       <c r="T7" t="n">
-        <v>286.5323736931989</v>
+        <v>536.6170209242687</v>
       </c>
       <c r="U7" t="n">
-        <v>53.94298182036445</v>
+        <v>536.6170209242687</v>
       </c>
       <c r="V7" t="n">
-        <v>53.94298182036445</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="W7" t="n">
-        <v>53.94298182036445</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X7" t="n">
         <v>53.94298182036445</v>
@@ -4778,16 +4780,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1779.584617183058</v>
+        <v>1714.263756178945</v>
       </c>
       <c r="C8" t="n">
-        <v>1749.341643278937</v>
+        <v>1345.301239238533</v>
       </c>
       <c r="D8" t="n">
-        <v>1749.341643278937</v>
+        <v>1345.301239238533</v>
       </c>
       <c r="E8" t="n">
-        <v>1363.553390680693</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F8" t="n">
         <v>952.5674858910851</v>
@@ -4799,55 +4801,55 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533144</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.961649073313</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M8" t="n">
-        <v>1362.238747280443</v>
+        <v>1362.238747280444</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018224</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548717</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548717</v>
       </c>
       <c r="T8" t="n">
-        <v>2423.485734520778</v>
+        <v>2423.48573452078</v>
       </c>
       <c r="U8" t="n">
-        <v>2169.723949158869</v>
+        <v>2423.48573452078</v>
       </c>
       <c r="V8" t="n">
-        <v>2169.723949158869</v>
+        <v>2423.48573452078</v>
       </c>
       <c r="W8" t="n">
-        <v>2169.723949158869</v>
+        <v>2104.403088154756</v>
       </c>
       <c r="X8" t="n">
-        <v>2169.723949158869</v>
+        <v>2104.403088154756</v>
       </c>
       <c r="Y8" t="n">
-        <v>1779.584617183058</v>
+        <v>1714.263756178945</v>
       </c>
     </row>
     <row r="9">
@@ -4878,22 +4880,22 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036444</v>
+        <v>129.2001442204944</v>
       </c>
       <c r="K9" t="n">
-        <v>309.1903022614629</v>
+        <v>384.447464661593</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.063382757265</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
         <v>2188.831293537797</v>
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>507.3364050629041</v>
+        <v>520.9088977430002</v>
       </c>
       <c r="C10" t="n">
-        <v>507.3364050629041</v>
+        <v>351.9727148150934</v>
       </c>
       <c r="D10" t="n">
-        <v>507.3364050629041</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E10" t="n">
-        <v>507.3364050629041</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="F10" t="n">
-        <v>380.6911546495019</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="G10" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866326</v>
+        <v>110.2451748866327</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477912</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658212</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502504</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594906</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600568</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600568</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600568</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600568</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600568</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600568</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600568</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064342</v>
+        <v>520.9088977430002</v>
       </c>
       <c r="Y10" t="n">
-        <v>507.3364050629041</v>
+        <v>520.9088977430002</v>
       </c>
     </row>
     <row r="11">
@@ -5042,13 +5044,13 @@
         <v>365.8813331823786</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N11" t="n">
         <v>3183.709822619127</v>
@@ -5066,7 +5068,7 @@
         <v>4860.854573014291</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
@@ -5106,13 +5108,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F12" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G12" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H12" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I12" t="n">
         <v>97.21709146028583</v>
@@ -5124,7 +5126,7 @@
         <v>674.4285624571608</v>
       </c>
       <c r="L12" t="n">
-        <v>921.1936903636247</v>
+        <v>921.1936903636248</v>
       </c>
       <c r="M12" t="n">
         <v>1228.513823643586</v>
@@ -5200,19 +5202,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
         <v>1460.082827585746</v>
@@ -5252,7 +5254,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
@@ -5261,40 +5263,40 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J14" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
@@ -5312,16 +5314,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5355,25 +5357,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277032</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341671</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M15" t="n">
-        <v>1302.911127126628</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N15" t="n">
-        <v>2051.878056918009</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136706</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,13 +5412,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>675.007103038344</v>
+        <v>1141.200876391121</v>
       </c>
       <c r="C16" t="n">
-        <v>675.007103038344</v>
+        <v>972.2646934632137</v>
       </c>
       <c r="D16" t="n">
-        <v>675.007103038344</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="E16" t="n">
         <v>674.2349604684848</v>
@@ -5437,19 +5439,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
         <v>1460.082827585746</v>
@@ -5458,28 +5460,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>964.1357418247858</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U16" t="n">
-        <v>675.007103038344</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V16" t="n">
-        <v>675.007103038344</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W16" t="n">
-        <v>675.007103038344</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="X16" t="n">
-        <v>675.007103038344</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="Y16" t="n">
-        <v>675.007103038344</v>
+        <v>1322.84934122136</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5491,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
@@ -5513,10 +5515,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823786</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5549,16 +5551,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5592,25 +5594,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>709.4934589365143</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>1016.813592216476</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N18" t="n">
-        <v>1346.676219880509</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>420.0340835819383</v>
+        <v>799.8610847926847</v>
       </c>
       <c r="C19" t="n">
-        <v>420.0340835819383</v>
+        <v>799.8610847926847</v>
       </c>
       <c r="D19" t="n">
-        <v>395.5481934947356</v>
+        <v>649.7444453803489</v>
       </c>
       <c r="E19" t="n">
-        <v>247.6350999123426</v>
+        <v>501.8313517979558</v>
       </c>
       <c r="F19" t="n">
-        <v>247.6350999123426</v>
+        <v>354.9414043000454</v>
       </c>
       <c r="G19" t="n">
-        <v>247.6350999123426</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I19" t="n">
         <v>97.21709146028584</v>
@@ -5695,28 +5697,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>964.1357418247858</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U19" t="n">
-        <v>964.1357418247858</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V19" t="n">
-        <v>709.4512536188989</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W19" t="n">
-        <v>420.0340835819383</v>
+        <v>1209.499100520942</v>
       </c>
       <c r="X19" t="n">
-        <v>420.0340835819383</v>
+        <v>981.5095496229244</v>
       </c>
       <c r="Y19" t="n">
-        <v>420.0340835819383</v>
+        <v>981.5095496229244</v>
       </c>
     </row>
     <row r="20">
@@ -5741,34 +5743,34 @@
         <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.62743720783</v>
@@ -5838,7 +5840,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
         <v>1558.376451307619</v>
@@ -5884,16 +5886,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>711.072954880832</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>542.1367719529251</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
         <v>97.21709146028584</v>
@@ -5935,25 +5937,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T22" t="n">
-        <v>1498.916270557902</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U22" t="n">
-        <v>1498.916270557902</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V22" t="n">
-        <v>1498.916270557902</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W22" t="n">
-        <v>1209.499100520942</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X22" t="n">
-        <v>1113.513998854602</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y22" t="n">
-        <v>892.7214197110717</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5984,43 +5986,43 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J23" t="n">
         <v>365.8813331823786</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V23" t="n">
         <v>3931.294970121731</v>
@@ -6054,40 +6056,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G24" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643586</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P24" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q24" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>124.4640073588198</v>
+        <v>3570.689985294727</v>
       </c>
       <c r="C25" t="n">
-        <v>124.4640073588198</v>
+        <v>3570.689985294727</v>
       </c>
       <c r="D25" t="n">
-        <v>124.4640073588198</v>
+        <v>3570.689985294727</v>
       </c>
       <c r="E25" t="n">
-        <v>124.4640073588198</v>
+        <v>3570.689985294727</v>
       </c>
       <c r="F25" t="n">
-        <v>124.4640073588198</v>
+        <v>3570.689985294727</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>3570.689985294727</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>3570.689985294727</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380584</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625196</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636325</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.002278403508</v>
       </c>
       <c r="N25" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431055</v>
       </c>
       <c r="O25" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436452</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042135</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473455</v>
+        <v>4660.934562929844</v>
       </c>
       <c r="T25" t="n">
-        <v>1298.996260473455</v>
+        <v>4660.934562929844</v>
       </c>
       <c r="U25" t="n">
-        <v>1298.996260473455</v>
+        <v>4371.805924143402</v>
       </c>
       <c r="V25" t="n">
-        <v>1044.311772267568</v>
+        <v>4117.121435937515</v>
       </c>
       <c r="W25" t="n">
-        <v>754.894602230607</v>
+        <v>3827.704265900555</v>
       </c>
       <c r="X25" t="n">
-        <v>526.9050513325897</v>
+        <v>3791.482564438257</v>
       </c>
       <c r="Y25" t="n">
-        <v>306.1124721890595</v>
+        <v>3570.689985294727</v>
       </c>
     </row>
     <row r="26">
@@ -6221,7 +6223,7 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J26" t="n">
         <v>365.8813331823786</v>
@@ -6233,7 +6235,7 @@
         <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N26" t="n">
         <v>3183.709822619127</v>
@@ -6242,19 +6244,19 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U26" t="n">
         <v>4262.357857465301</v>
@@ -6291,37 +6293,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G27" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K27" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L27" t="n">
-        <v>1099.417155020476</v>
+        <v>921.1936903636248</v>
       </c>
       <c r="M27" t="n">
-        <v>1406.737288300438</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N27" t="n">
-        <v>1736.599915964471</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>4117.121435937516</v>
+        <v>773.454678735334</v>
       </c>
       <c r="C28" t="n">
-        <v>4117.121435937516</v>
+        <v>773.454678735334</v>
       </c>
       <c r="D28" t="n">
-        <v>3967.004796525181</v>
+        <v>773.454678735334</v>
       </c>
       <c r="E28" t="n">
-        <v>3819.091702942787</v>
+        <v>625.5415851529409</v>
       </c>
       <c r="F28" t="n">
-        <v>3672.201755444877</v>
+        <v>478.6516376550305</v>
       </c>
       <c r="G28" t="n">
-        <v>3504.026433764698</v>
+        <v>310.4763159748511</v>
       </c>
       <c r="H28" t="n">
-        <v>3459.155393916676</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I28" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J28" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>4660.934562929845</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>4660.934562929845</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U28" t="n">
-        <v>4371.805924143403</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V28" t="n">
-        <v>4117.121435937516</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W28" t="n">
-        <v>4117.121435937516</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="X28" t="n">
-        <v>4117.121435937516</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="Y28" t="n">
-        <v>4117.121435937516</v>
+        <v>955.1031435655738</v>
       </c>
     </row>
     <row r="29">
@@ -6437,7 +6439,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
         <v>2059.358867610191</v>
@@ -6446,25 +6448,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G29" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6479,16 +6481,16 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
@@ -6503,10 +6505,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6537,28 +6539,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>901.674922584592</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.043068977053</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N30" t="n">
-        <v>1999.905696641086</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3778.208216256918</v>
+        <v>1096.475226584133</v>
       </c>
       <c r="C31" t="n">
-        <v>3609.272033329011</v>
+        <v>927.5390436562259</v>
       </c>
       <c r="D31" t="n">
-        <v>3459.155393916676</v>
+        <v>777.4224042438901</v>
       </c>
       <c r="E31" t="n">
-        <v>3459.155393916676</v>
+        <v>629.509310661497</v>
       </c>
       <c r="F31" t="n">
-        <v>3459.155393916676</v>
+        <v>482.6193631635866</v>
       </c>
       <c r="G31" t="n">
-        <v>3459.155393916676</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H31" t="n">
-        <v>3459.155393916676</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I31" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O31" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q31" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T31" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U31" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V31" t="n">
-        <v>4698.055981165666</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W31" t="n">
-        <v>4408.638811128705</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="X31" t="n">
-        <v>4180.649260230688</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="Y31" t="n">
-        <v>3959.856681087158</v>
+        <v>1278.123691414372</v>
       </c>
     </row>
     <row r="32">
@@ -6677,70 +6679,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382245</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J32" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690732</v>
       </c>
       <c r="C33" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409605</v>
       </c>
       <c r="D33" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748354</v>
       </c>
       <c r="E33" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.087432742898</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769783</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.626196373968</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805656</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>2334.49815909844</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256434</v>
+        <v>2500.819361250802</v>
       </c>
       <c r="K33" t="n">
-        <v>287.7778528277033</v>
+        <v>2911.709630095315</v>
       </c>
       <c r="L33" t="n">
-        <v>534.5429807341673</v>
+        <v>3158.474758001779</v>
       </c>
       <c r="M33" t="n">
-        <v>1247.466478653857</v>
+        <v>3465.794891281741</v>
       </c>
       <c r="N33" t="n">
-        <v>2051.878056918008</v>
+        <v>3795.657518945773</v>
       </c>
       <c r="O33" t="n">
-        <v>2331.418122136705</v>
+        <v>4075.19758416447</v>
       </c>
       <c r="P33" t="n">
-        <v>2536.440602918915</v>
+        <v>4565.745155698577</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="R33" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S33" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098066</v>
       </c>
       <c r="T33" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021844</v>
       </c>
       <c r="U33" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641231</v>
       </c>
       <c r="V33" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.776819409488</v>
       </c>
       <c r="W33" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681287</v>
       </c>
       <c r="X33" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475754</v>
       </c>
       <c r="Y33" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.9276637108</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>781.5895395384766</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="C34" t="n">
-        <v>781.5895395384766</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="D34" t="n">
-        <v>781.5895395384766</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="E34" t="n">
-        <v>674.2349604684848</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="F34" t="n">
-        <v>527.3450129705744</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="G34" t="n">
-        <v>359.1696912903951</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="H34" t="n">
-        <v>208.7516828383384</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="J34" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380584</v>
       </c>
       <c r="K34" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625196</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636325</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.002278403508</v>
       </c>
       <c r="N34" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431055</v>
       </c>
       <c r="O34" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436452</v>
       </c>
       <c r="P34" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042135</v>
       </c>
       <c r="Q34" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="R34" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S34" t="n">
-        <v>1298.996260473455</v>
+        <v>4744.160657054475</v>
       </c>
       <c r="T34" t="n">
-        <v>1298.996260473455</v>
+        <v>4520.375241843982</v>
       </c>
       <c r="U34" t="n">
-        <v>1298.996260473455</v>
+        <v>4231.24660305754</v>
       </c>
       <c r="V34" t="n">
-        <v>1298.996260473455</v>
+        <v>3976.562114851653</v>
       </c>
       <c r="W34" t="n">
-        <v>1009.579090436494</v>
+        <v>3687.144944814692</v>
       </c>
       <c r="X34" t="n">
-        <v>781.5895395384766</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="Y34" t="n">
-        <v>781.5895395384766</v>
+        <v>3459.155393916675</v>
       </c>
     </row>
     <row r="35">
@@ -6914,7 +6916,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
         <v>1701.09316900344</v>
@@ -6923,13 +6925,13 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028584</v>
@@ -6938,22 +6940,22 @@
         <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
         <v>4801.62743720783</v>
@@ -6968,16 +6970,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7069,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1141.200876391121</v>
+        <v>882.7763375151577</v>
       </c>
       <c r="C37" t="n">
-        <v>972.2646934632137</v>
+        <v>713.8401545872508</v>
       </c>
       <c r="D37" t="n">
-        <v>822.1480540508779</v>
+        <v>563.7235151749151</v>
       </c>
       <c r="E37" t="n">
-        <v>674.2349604684848</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="F37" t="n">
-        <v>527.3450129705744</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G37" t="n">
-        <v>359.1696912903951</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H37" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
         <v>97.21709146028584</v>
@@ -7126,19 +7128,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="U37" t="n">
-        <v>1498.916270557902</v>
+        <v>1426.877995758005</v>
       </c>
       <c r="V37" t="n">
-        <v>1498.916270557902</v>
+        <v>1172.193507552118</v>
       </c>
       <c r="W37" t="n">
-        <v>1498.916270557902</v>
+        <v>882.7763375151577</v>
       </c>
       <c r="X37" t="n">
-        <v>1498.916270557902</v>
+        <v>882.7763375151577</v>
       </c>
       <c r="Y37" t="n">
-        <v>1322.84934122136</v>
+        <v>882.7763375151577</v>
       </c>
     </row>
     <row r="38">
@@ -7151,7 +7153,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
         <v>1701.09316900344</v>
@@ -7160,19 +7162,19 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K38" t="n">
         <v>889.2841917514082</v>
@@ -7184,7 +7186,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
@@ -7205,16 +7207,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7251,25 +7253,25 @@
         <v>2334.498159098441</v>
       </c>
       <c r="J39" t="n">
-        <v>2375.989236263798</v>
+        <v>2500.819361250803</v>
       </c>
       <c r="K39" t="n">
-        <v>2525.058920465858</v>
+        <v>2911.709630095316</v>
       </c>
       <c r="L39" t="n">
-        <v>2771.824048372322</v>
+        <v>3158.47475800178</v>
       </c>
       <c r="M39" t="n">
-        <v>3540.192194764783</v>
+        <v>3465.794891281741</v>
       </c>
       <c r="N39" t="n">
-        <v>4289.159124556162</v>
+        <v>3795.657518945774</v>
       </c>
       <c r="O39" t="n">
-        <v>4568.699189774859</v>
+        <v>4075.197584164471</v>
       </c>
       <c r="P39" t="n">
-        <v>4773.721670557069</v>
+        <v>4565.745155698578</v>
       </c>
       <c r="Q39" t="n">
         <v>4860.854573014292</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>266.1532743881928</v>
+        <v>4389.788938147092</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028584</v>
+        <v>4220.852755219185</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028584</v>
+        <v>4070.73611580685</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028584</v>
+        <v>3922.823022224457</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028584</v>
+        <v>3775.933074726546</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028584</v>
+        <v>3607.757753046367</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="J40" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380585</v>
       </c>
       <c r="K40" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625197</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636326</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.002278403509</v>
       </c>
       <c r="N40" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O40" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P40" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q40" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S40" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="T40" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="U40" t="n">
-        <v>1440.685527502827</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="V40" t="n">
-        <v>1186.00103929694</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="W40" t="n">
-        <v>896.5838692599799</v>
+        <v>4571.437402977332</v>
       </c>
       <c r="X40" t="n">
-        <v>668.5943183619626</v>
+        <v>4571.437402977332</v>
       </c>
       <c r="Y40" t="n">
-        <v>447.8017392184324</v>
+        <v>4571.437402977332</v>
       </c>
     </row>
     <row r="41">
@@ -7412,10 +7414,10 @@
         <v>365.8813331823786</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
@@ -7445,16 +7447,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C42" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D42" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E42" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G42" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H42" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>2375.989236263798</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>2525.058920465858</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>2771.824048372322</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>3484.747546292012</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
-        <v>4289.159124556162</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>4568.699189774859</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>4773.721670557069</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S42" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T42" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U42" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V42" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W42" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X42" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y42" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="43">
@@ -7543,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1009.867621687013</v>
+        <v>711.072954880832</v>
       </c>
       <c r="C43" t="n">
-        <v>972.2646934632137</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D43" t="n">
-        <v>822.1480540508779</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E43" t="n">
-        <v>674.2349604684848</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F43" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
         <v>97.21709146028584</v>
@@ -7612,7 +7614,7 @@
         <v>1009.867621687013</v>
       </c>
       <c r="Y43" t="n">
-        <v>1009.867621687013</v>
+        <v>892.7214197110717</v>
       </c>
     </row>
     <row r="44">
@@ -7628,43 +7630,43 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822459</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
         <v>4801.62743720783</v>
@@ -7725,25 +7727,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>624.8682044203586</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>932.1883377003201</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
-        <v>1736.599915964471</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7780,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>822.1480540508779</v>
+        <v>1029.666285013068</v>
       </c>
       <c r="C46" t="n">
-        <v>822.1480540508779</v>
+        <v>860.7301020851612</v>
       </c>
       <c r="D46" t="n">
-        <v>822.1480540508779</v>
+        <v>710.6134626728254</v>
       </c>
       <c r="E46" t="n">
-        <v>674.2349604684848</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="F46" t="n">
-        <v>527.3450129705744</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G46" t="n">
-        <v>359.1696912903951</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H46" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
         <v>97.21709146028584</v>
@@ -7828,28 +7830,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T46" t="n">
-        <v>964.1357418247858</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U46" t="n">
-        <v>964.1357418247858</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V46" t="n">
-        <v>822.1480540508779</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="W46" t="n">
-        <v>822.1480540508779</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="X46" t="n">
-        <v>822.1480540508779</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="Y46" t="n">
-        <v>822.1480540508779</v>
+        <v>1211.314749843308</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8064,7 +8066,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>465.7050637499999</v>
+        <v>422.2865794093292</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
@@ -8076,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951776</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8301,7 +8303,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>346.2692436516221</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
         <v>479.3423743435536</v>
@@ -8313,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8541,10 +8543,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451747</v>
       </c>
       <c r="O9" t="n">
-        <v>350.4438349360591</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8784,13 +8786,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>288.4091825776759</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.7842838544522</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9003,31 +9005,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>423.3376789165131</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.7842838544522</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9240,13 +9242,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>176.7176547498455</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9255,13 +9257,13 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>34.78428385445218</v>
@@ -9495,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9714,31 +9716,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>277.6717966208067</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9951,13 +9953,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>306.1147370139963</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9969,10 +9971,10 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>34.78428385445218</v>
@@ -10133,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10188,28 +10190,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>52.49733361305277</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>34.78428385445218</v>
@@ -10425,28 +10427,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>288.4091825776745</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>34.78428385445218</v>
@@ -10604,7 +10606,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599059</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10829,7 +10831,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10899,28 +10901,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>423.3376789165112</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>288.4091825776745</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>34.78428385445218</v>
@@ -11066,7 +11068,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928327</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11136,28 +11138,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>409.7003683229575</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>34.78428385445218</v>
@@ -11373,28 +11375,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>91.23759968302147</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>34.78428385445218</v>
@@ -23482,7 +23484,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>44.27839330891823</v>
+        <v>44.278393308918</v>
       </c>
     </row>
     <row r="14">
@@ -23650,16 +23652,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>145.6695415024086</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23698,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23719,7 +23721,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>44.278393308918</v>
       </c>
     </row>
     <row r="17">
@@ -23887,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>124.3744418318817</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>21.7657442162876</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,25 +23937,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24124,19 +24126,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
@@ -24175,25 +24177,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>130.6844047393606</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24263,7 +24265,7 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -24361,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24376,13 +24378,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>139.5191217238289</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24418,7 +24420,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24427,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>189.8501709413627</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24497,7 +24499,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>1.080024958355352e-12</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -24598,13 +24600,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24616,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>104.4914989179943</v>
+        <v>48.20644156238851</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,7 +24651,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
@@ -24844,19 +24846,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>44.278393308918</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24895,13 +24897,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>90.96703739368775</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -24935,7 +24937,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>1.165290086646564e-12</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -25081,19 +25083,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>40.15292936727728</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25123,16 +25125,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25309,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25321,7 +25323,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25330,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25366,19 +25368,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>214.9194603466792</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>44.278393308918</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25552,19 +25554,19 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>1.797492829141845</v>
       </c>
       <c r="I40" t="n">
         <v>110.419245464272</v>
@@ -25603,19 +25605,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>228.5889167740531</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25783,10 +25785,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>130.0199221570667</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25798,13 +25800,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25852,7 +25854,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>102.6099133959131</v>
       </c>
     </row>
     <row r="44">
@@ -26020,13 +26022,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26041,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26080,7 +26082,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>111.5698324276592</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -26089,7 +26091,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>155.4067089030353</v>
       </c>
     </row>
   </sheetData>
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>906495.7753621623</v>
+        <v>906495.7753621624</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>906495.7753621623</v>
+        <v>906495.7753621622</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>906495.7753621623</v>
+        <v>906495.775362162</v>
       </c>
     </row>
     <row r="11">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>906495.7753621623</v>
+        <v>906495.7753621622</v>
       </c>
     </row>
     <row r="15">
@@ -26320,37 +26322,37 @@
         <v>492625.0619185698</v>
       </c>
       <c r="E2" t="n">
-        <v>469234.8716852506</v>
+        <v>469234.8716852504</v>
       </c>
       <c r="F2" t="n">
-        <v>469234.8716852507</v>
+        <v>469234.8716852505</v>
       </c>
       <c r="G2" t="n">
         <v>469234.8716852504</v>
       </c>
       <c r="H2" t="n">
-        <v>469234.8716852504</v>
+        <v>469234.8716852503</v>
       </c>
       <c r="I2" t="n">
-        <v>469234.8716852504</v>
+        <v>469234.8716852505</v>
       </c>
       <c r="J2" t="n">
         <v>469234.8716852504</v>
       </c>
       <c r="K2" t="n">
-        <v>469234.8716852503</v>
+        <v>469234.8716852505</v>
       </c>
       <c r="L2" t="n">
-        <v>469234.8716852504</v>
+        <v>469234.8716852505</v>
       </c>
       <c r="M2" t="n">
+        <v>469234.8716852506</v>
+      </c>
+      <c r="N2" t="n">
         <v>469234.8716852505</v>
       </c>
-      <c r="N2" t="n">
-        <v>469234.8716852504</v>
-      </c>
       <c r="O2" t="n">
-        <v>469234.8716852504</v>
+        <v>469234.8716852505</v>
       </c>
       <c r="P2" t="n">
         <v>469234.8716852504</v>
@@ -26363,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.434074986013002e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.036476896</v>
+        <v>525160.0364768957</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26390,7 +26392,7 @@
         <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>1.170374162029475e-10</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26415,40 +26417,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>147917.0487159209</v>
+        <v>147917.0487159208</v>
       </c>
       <c r="C4" t="n">
         <v>147917.0487159208</v>
       </c>
       <c r="D4" t="n">
-        <v>147917.0487159209</v>
+        <v>147917.0487159207</v>
       </c>
       <c r="E4" t="n">
         <v>7916.731656007484</v>
       </c>
       <c r="F4" t="n">
-        <v>7916.731656007485</v>
+        <v>7916.731656007484</v>
       </c>
       <c r="G4" t="n">
-        <v>7916.731656007485</v>
+        <v>7916.731656007484</v>
       </c>
       <c r="H4" t="n">
-        <v>7916.731656007484</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="I4" t="n">
-        <v>7916.731656007484</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="J4" t="n">
         <v>7916.731656007484</v>
       </c>
       <c r="K4" t="n">
-        <v>7916.731656007484</v>
+        <v>7916.731656007487</v>
       </c>
       <c r="L4" t="n">
-        <v>7916.731656007484</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="M4" t="n">
-        <v>7916.731656007484</v>
+        <v>7916.731656007486</v>
       </c>
       <c r="N4" t="n">
         <v>7916.731656007483</v>
@@ -26473,7 +26475,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="E5" t="n">
         <v>91987.32594871661</v>
@@ -26485,19 +26487,19 @@
         <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="M5" t="n">
         <v>91987.32594871662</v>
@@ -26519,25 +26521,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-328118.9440753051</v>
+        <v>-328118.9440753049</v>
       </c>
       <c r="C6" t="n">
-        <v>261848.9351392396</v>
+        <v>261848.9351392395</v>
       </c>
       <c r="D6" t="n">
         <v>261848.9351392394</v>
       </c>
       <c r="E6" t="n">
-        <v>-155829.2223963695</v>
+        <v>-155829.2223963694</v>
       </c>
       <c r="F6" t="n">
-        <v>369330.8140805266</v>
+        <v>369330.8140805264</v>
       </c>
       <c r="G6" t="n">
-        <v>369330.8140805263</v>
+        <v>369330.8140805264</v>
       </c>
       <c r="H6" t="n">
-        <v>369330.8140805263</v>
+        <v>369330.8140805262</v>
       </c>
       <c r="I6" t="n">
         <v>369330.8140805264</v>
@@ -26552,7 +26554,7 @@
         <v>369330.8140805264</v>
       </c>
       <c r="M6" t="n">
-        <v>234529.7988466893</v>
+        <v>234529.7988466895</v>
       </c>
       <c r="N6" t="n">
         <v>369330.8140805264</v>
@@ -26735,25 +26737,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.743664217087</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
         <v>830.3824054541002</v>
@@ -26793,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545559</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26957,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370135</v>
+        <v>452.6387412370132</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990169</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27036,13 +27038,13 @@
         <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990171</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990169</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,13 +27378,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>170.596836188166</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27391,13 +27393,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,28 +27426,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>339.5382092338689</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27534,10 +27536,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27546,13 +27548,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27579,10 +27581,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>10.68294653693471</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27591,10 +27593,10 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>260.0956863213232</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27619,22 +27621,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>188.8052277856831</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>53.30008710312372</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27670,7 +27672,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27679,10 +27681,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27816,28 +27818,28 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>51.67144525558908</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>56.01837628787163</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27853,7 +27855,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>335.3323476059281</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -27862,7 +27864,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27907,13 +27909,13 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>33.34914881504955</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -28011,28 +28013,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>20.04225011366307</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853696</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28074,10 +28076,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>49.68451974515114</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -31045,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340047</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141001</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554472</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727437</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081579</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630672</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405369</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338307</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119868</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954669</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044139</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633806</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727386</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473559</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141116</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188921</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.97441286890692</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396483</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478009</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983124</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736702</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923049</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479579</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034986</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131474</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372668</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619158</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078616</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644448</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492007</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813582</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302246</v>
       </c>
       <c r="L10" t="n">
-        <v>101.2724571246924</v>
+        <v>101.2724571246925</v>
       </c>
       <c r="M10" t="n">
-        <v>106.777606591725</v>
+        <v>106.7776065917251</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666595</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175852</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383808</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678013</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701166</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695336</v>
+        <v>11.87105908695337</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197226</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315613</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31759,40 +31761,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31832,10 +31834,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
         <v>168.7478056215733</v>
@@ -31844,7 +31846,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
         <v>452.5584109724845</v>
@@ -31853,10 +31855,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
         <v>227.9948068710956</v>
@@ -31868,7 +31870,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31914,7 +31916,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
@@ -31932,7 +31934,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
@@ -31944,10 +31946,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
         <v>0.08167695791351813</v>
@@ -31996,40 +31998,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32069,10 +32071,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
         <v>168.7478056215733</v>
@@ -32081,7 +32083,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
         <v>452.5584109724845</v>
@@ -32090,10 +32092,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
         <v>227.9948068710956</v>
@@ -32105,7 +32107,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32151,7 +32153,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
@@ -32169,7 +32171,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
@@ -32181,10 +32183,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
         <v>0.08167695791351813</v>
@@ -32461,16 +32463,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32479,7 +32481,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32488,7 +32490,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32497,7 +32499,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,7 +32542,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32549,7 +32551,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32558,10 +32560,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32576,10 +32578,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32640,7 +32642,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32652,16 +32654,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -34696,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34784,19 +34786,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4413268262938</v>
+        <v>486.0228424856231</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730626</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35012,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35021,7 +35023,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>410.005506727916</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
         <v>559.3197334338903</v>
@@ -35033,7 +35035,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.2230414343421</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435304</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060967</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492239</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530454</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.93761631168</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.9975062898691</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770697</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>529.441326826294</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355116</v>
       </c>
       <c r="O9" t="n">
-        <v>401.1632560839194</v>
+        <v>444.58174042459</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735648</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>173.8110948137342</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713961</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850085</v>
+        <v>128.8624823850086</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535656</v>
+        <v>146.3614835535657</v>
       </c>
       <c r="N10" t="n">
-        <v>148.370846145888</v>
+        <v>148.3708461458881</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873156</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349805</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35492,19 +35494,19 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980127</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>495.5025975092005</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q12" t="n">
         <v>298.0903205209232</v>
@@ -35565,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299105</v>
@@ -35574,7 +35576,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
         <v>273.2768778056036</v>
@@ -35586,7 +35588,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349805</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490663</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>776.129440800466</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>756.5322523145259</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507407</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299105</v>
@@ -35811,7 +35813,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
         <v>273.2768778056036</v>
@@ -35823,7 +35825,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35960,13 +35962,13 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>425.9753597058698</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
         <v>310.4243770504662</v>
@@ -35975,13 +35977,13 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36121,13 +36123,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36142,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36206,16 +36208,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
@@ -36276,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36291,13 +36293,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36434,31 +36436,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L24" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504662</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O24" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>484.7652115523313</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36671,13 +36673,13 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>555.3724419700205</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
         <v>310.4243770504662</v>
@@ -36689,10 +36691,10 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36853,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>334.8610358541609</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37145,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091992</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37324,7 +37326,7 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502048</v>
+        <v>350.499584150206</v>
       </c>
       <c r="R35" t="n">
         <v>59.82538970349808</v>
@@ -37549,7 +37551,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37619,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>756.532252314524</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091992</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37786,7 +37788,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37856,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>720.1247453734237</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38093,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>340.4953046390457</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
         <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_1_24.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_1_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1763628.205459543</v>
+        <v>1756611.190567832</v>
       </c>
     </row>
     <row r="7">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>212.1370054753146</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -670,10 +670,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>413.3764625499726</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -712,19 +712,19 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -743,7 +743,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>147.4450655646389</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -791,7 +791,7 @@
         <v>156.5912426325231</v>
       </c>
       <c r="T3" t="n">
-        <v>196.8897623984484</v>
+        <v>196.8897623984489</v>
       </c>
       <c r="U3" t="n">
         <v>225.8879277888686</v>
@@ -816,10 +816,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -828,16 +828,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>45.199959188537</v>
@@ -861,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>18.43980341797959</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -882,10 +882,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>223.82754963964</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>98.63122914173753</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,28 +943,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>6.283679164003906</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1053,10 +1053,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1098,13 +1098,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>160.4740936944298</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1113,16 +1113,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>101.780687729549</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>5.983388191318943</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448612</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,25 +1180,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481162</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>315.8918199023635</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1229,10 +1229,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250816</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229327</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1293,13 +1293,13 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491425</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1350,13 +1350,13 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>155.2114886365809</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>176.025135643886</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>20.81531099655667</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>174.3062600431768</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1612,7 +1612,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206818</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1767,25 +1767,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,25 +1815,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>215.6214853475419</v>
       </c>
       <c r="Y16" t="n">
-        <v>174.3062600431768</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1849,7 +1849,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.6830416206827</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1861,10 +1861,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H17" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2013,16 +2013,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>144.72782424709</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -2061,7 +2061,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>233.5654595650913</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2140,7 +2140,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2238,10 +2238,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2250,13 +2250,13 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>18.53530583053485</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2289,16 +2289,16 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>115.5269768002178</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2320,7 +2320,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710062</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2377,7 +2377,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701337</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2496,7 +2496,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2529,7 +2529,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
@@ -2541,10 +2541,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>35.85948444767448</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,16 +2605,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U26" t="n">
-        <v>251.0785952497999</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2715,10 +2715,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -2730,10 +2730,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>100.7073868051476</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2769,19 +2769,19 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>59.01585011841158</v>
       </c>
     </row>
     <row r="29">
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U29" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2964,13 +2964,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>122.2151751544596</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,10 +3000,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3018,7 +3018,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>31.75070292883384</v>
       </c>
     </row>
     <row r="32">
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.7791350527396</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3426,22 +3426,22 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3477,10 +3477,10 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>118.4898845065119</v>
       </c>
       <c r="U37" t="n">
-        <v>71.3178920518982</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3489,10 +3489,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3660,25 +3660,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>147.1163355383943</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3711,13 +3711,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>54.73708901409875</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -3726,7 +3726,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3903,19 +3903,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>160.872250580816</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3948,25 +3948,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>115.9747399561817</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4134,25 +4134,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4185,25 +4185,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>63.1779444490595</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1036.358670716696</v>
+        <v>631.906440948188</v>
       </c>
       <c r="C2" t="n">
-        <v>1036.358670716696</v>
+        <v>631.906440948188</v>
       </c>
       <c r="D2" t="n">
-        <v>1036.358670716696</v>
+        <v>631.906440948188</v>
       </c>
       <c r="E2" t="n">
-        <v>1036.358670716696</v>
+        <v>631.906440948188</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>624.9609401989845</v>
       </c>
       <c r="G2" t="n">
         <v>207.4089578252748</v>
@@ -4327,16 +4327,16 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4348,10 +4348,10 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R2" t="n">
         <v>2642.120401548716</v>
@@ -4360,22 +4360,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.54646147304</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V2" t="n">
-        <v>1993.54646147304</v>
+        <v>2134.880026519315</v>
       </c>
       <c r="W2" t="n">
-        <v>1640.777806202926</v>
+        <v>1782.111371249201</v>
       </c>
       <c r="X2" t="n">
-        <v>1640.777806202926</v>
+        <v>1408.645612988121</v>
       </c>
       <c r="Y2" t="n">
-        <v>1250.638474227114</v>
+        <v>1018.50628101231</v>
       </c>
     </row>
     <row r="3">
@@ -4385,10 +4385,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170834</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359564</v>
       </c>
       <c r="D3" t="n">
         <v>665.1105362747051</v>
@@ -4406,10 +4406,10 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K3" t="n">
         <v>309.190302261463</v>
@@ -4418,25 +4418,25 @@
         <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T3" t="n">
         <v>2289.884200196743</v>
@@ -4454,7 +4454,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.713312237152</v>
       </c>
     </row>
     <row r="4">
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>709.502920147869</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="C4" t="n">
-        <v>540.5667372199621</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="D4" t="n">
-        <v>540.5667372199621</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="E4" t="n">
-        <v>540.5667372199621</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="F4" t="n">
-        <v>393.6767897220517</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="G4" t="n">
-        <v>393.6767897220517</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H4" t="n">
-        <v>235.9284171545819</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I4" t="n">
         <v>99.59950625323012</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
@@ -4497,43 +4497,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q4" t="n">
-        <v>709.502920147869</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R4" t="n">
-        <v>709.502920147869</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S4" t="n">
-        <v>709.502920147869</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T4" t="n">
-        <v>709.502920147869</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="U4" t="n">
-        <v>709.502920147869</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="V4" t="n">
-        <v>709.502920147869</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="W4" t="n">
-        <v>709.502920147869</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="X4" t="n">
-        <v>709.502920147869</v>
+        <v>502.0405502269999</v>
       </c>
       <c r="Y4" t="n">
-        <v>709.502920147869</v>
+        <v>281.2479710834698</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1309.714918859356</v>
+        <v>1187.828354776384</v>
       </c>
       <c r="C5" t="n">
-        <v>1309.714918859356</v>
+        <v>818.8658378359718</v>
       </c>
       <c r="D5" t="n">
-        <v>1309.714918859356</v>
+        <v>460.6001392292213</v>
       </c>
       <c r="E5" t="n">
-        <v>1309.714918859356</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F5" t="n">
-        <v>898.729014069748</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
-        <v>480.7652059679349</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>153.5704860039377</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>1993.54646147304</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V5" t="n">
-        <v>1662.48357412947</v>
+        <v>2690.801940347511</v>
       </c>
       <c r="W5" t="n">
-        <v>1309.714918859356</v>
+        <v>2338.033285077397</v>
       </c>
       <c r="X5" t="n">
-        <v>1309.714918859356</v>
+        <v>1964.567526816317</v>
       </c>
       <c r="Y5" t="n">
-        <v>1309.714918859356</v>
+        <v>1574.428194840505</v>
       </c>
     </row>
     <row r="6">
@@ -4622,49 +4622,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
@@ -4685,10 +4685,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4701,7 +4701,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="C7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>536.6170209242687</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>536.6170209242687</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>536.6170209242687</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>281.9325327183818</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>281.9325327183818</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>53.94298182036445</v>
+        <v>625.3202087220412</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036445</v>
+        <v>404.5276295785111</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1714.263756178945</v>
+        <v>808.083928634017</v>
       </c>
       <c r="C8" t="n">
-        <v>1345.301239238533</v>
+        <v>439.1214116936052</v>
       </c>
       <c r="D8" t="n">
-        <v>1345.301239238533</v>
+        <v>80.85571308685473</v>
       </c>
       <c r="E8" t="n">
-        <v>959.5129866402885</v>
+        <v>74.81188663097701</v>
       </c>
       <c r="F8" t="n">
-        <v>952.5674858910851</v>
+        <v>67.86638588177354</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533144</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.961649073313</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224081</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
-        <v>1362.238747280444</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018224</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548717</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548717</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="T8" t="n">
-        <v>2423.48573452078</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="U8" t="n">
-        <v>2423.48573452078</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="V8" t="n">
-        <v>2423.48573452078</v>
+        <v>2311.057514205144</v>
       </c>
       <c r="W8" t="n">
-        <v>2104.403088154756</v>
+        <v>1958.28885893503</v>
       </c>
       <c r="X8" t="n">
-        <v>2104.403088154756</v>
+        <v>1584.82310067395</v>
       </c>
       <c r="Y8" t="n">
-        <v>1714.263756178945</v>
+        <v>1194.683768698139</v>
       </c>
     </row>
     <row r="9">
@@ -4880,16 +4880,16 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204944</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>384.447464661593</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>789.063382757265</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
         <v>1313.210296315296</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>520.9088977430002</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C10" t="n">
-        <v>351.9727148150934</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D10" t="n">
-        <v>201.8560754027576</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866327</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477912</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658212</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502504</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594906</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064349</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600568</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600568</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600568</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>698.7120650600568</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>698.7120650600568</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>698.7120650600568</v>
+        <v>571.3497027553424</v>
       </c>
       <c r="W10" t="n">
-        <v>698.7120650600568</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X10" t="n">
-        <v>520.9088977430002</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="Y10" t="n">
-        <v>520.9088977430002</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
     <row r="11">
@@ -5041,7 +5041,7 @@
         <v>97.21709146028583</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
         <v>889.2841917514081</v>
@@ -5050,7 +5050,7 @@
         <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
         <v>3183.709822619127</v>
@@ -5108,37 +5108,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F12" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G12" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H12" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
         <v>97.21709146028583</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126481</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571608</v>
+        <v>549.598437470156</v>
       </c>
       <c r="L12" t="n">
-        <v>921.1936903636248</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M12" t="n">
-        <v>1228.513823643586</v>
+        <v>1722.015429253976</v>
       </c>
       <c r="N12" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918009</v>
       </c>
       <c r="O12" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136706</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1141.200876391121</v>
+        <v>585.5099430858311</v>
       </c>
       <c r="C13" t="n">
-        <v>972.2646934632137</v>
+        <v>416.5737601579242</v>
       </c>
       <c r="D13" t="n">
-        <v>822.1480540508779</v>
+        <v>416.5737601579242</v>
       </c>
       <c r="E13" t="n">
-        <v>674.2349604684848</v>
+        <v>268.6606665755311</v>
       </c>
       <c r="F13" t="n">
-        <v>527.3450129705744</v>
+        <v>268.6606665755311</v>
       </c>
       <c r="G13" t="n">
-        <v>359.1696912903951</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028583</v>
@@ -5202,19 +5202,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P13" t="n">
         <v>1460.082827585746</v>
@@ -5223,28 +5223,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557902</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U13" t="n">
-        <v>1498.916270557902</v>
+        <v>874.9271131227918</v>
       </c>
       <c r="V13" t="n">
-        <v>1498.916270557902</v>
+        <v>874.9271131227918</v>
       </c>
       <c r="W13" t="n">
-        <v>1498.916270557902</v>
+        <v>585.5099430858311</v>
       </c>
       <c r="X13" t="n">
-        <v>1498.916270557902</v>
+        <v>585.5099430858311</v>
       </c>
       <c r="Y13" t="n">
-        <v>1322.84934122136</v>
+        <v>585.5099430858311</v>
       </c>
     </row>
     <row r="14">
@@ -5257,46 +5257,46 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D14" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
@@ -5305,22 +5305,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y14" t="n">
         <v>2814.921224614724</v>
@@ -5357,25 +5357,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277032</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636249</v>
+        <v>709.4934589365146</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643586</v>
+        <v>1016.813592216476</v>
       </c>
       <c r="N15" t="n">
-        <v>1558.376451307619</v>
+        <v>1346.676219880509</v>
       </c>
       <c r="O15" t="n">
-        <v>1837.916516526316</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1141.200876391121</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
-        <v>972.2646934632137</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>822.1480540508779</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
@@ -5439,19 +5439,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P16" t="n">
         <v>1460.082827585746</v>
@@ -5463,25 +5463,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U16" t="n">
-        <v>1498.916270557902</v>
+        <v>786.0822064765184</v>
       </c>
       <c r="V16" t="n">
-        <v>1498.916270557902</v>
+        <v>786.0822064765184</v>
       </c>
       <c r="W16" t="n">
-        <v>1498.916270557902</v>
+        <v>496.6650364395578</v>
       </c>
       <c r="X16" t="n">
-        <v>1498.916270557902</v>
+        <v>278.8655562905255</v>
       </c>
       <c r="Y16" t="n">
-        <v>1322.84934122136</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="17">
@@ -5497,16 +5497,16 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H17" t="n">
         <v>179.8222783822462</v>
@@ -5515,10 +5515,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514077</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5527,7 +5527,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
@@ -5594,25 +5594,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643586</v>
+        <v>841.863114014129</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.376451307619</v>
+        <v>1171.725741678162</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526316</v>
+        <v>1841.189502980821</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2361.490124716568</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>799.8610847926847</v>
+        <v>545.6648329070714</v>
       </c>
       <c r="C19" t="n">
-        <v>799.8610847926847</v>
+        <v>545.6648329070714</v>
       </c>
       <c r="D19" t="n">
-        <v>649.7444453803489</v>
+        <v>395.5481934947356</v>
       </c>
       <c r="E19" t="n">
-        <v>501.8313517979558</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F19" t="n">
-        <v>354.9414043000454</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G19" t="n">
-        <v>208.7516828383384</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
         <v>97.21709146028584</v>
@@ -5700,25 +5700,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U19" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="V19" t="n">
-        <v>1498.916270557902</v>
+        <v>1063.071553842049</v>
       </c>
       <c r="W19" t="n">
-        <v>1209.499100520942</v>
+        <v>773.6543838050887</v>
       </c>
       <c r="X19" t="n">
-        <v>981.5095496229244</v>
+        <v>545.6648329070714</v>
       </c>
       <c r="Y19" t="n">
-        <v>981.5095496229244</v>
+        <v>545.6648329070714</v>
       </c>
     </row>
     <row r="20">
@@ -5728,7 +5728,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
@@ -5737,28 +5737,28 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823783</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
@@ -5767,7 +5767,7 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P20" t="n">
         <v>4454.632848899127</v>
@@ -5788,16 +5788,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5831,22 +5831,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636249</v>
+        <v>891.4406401619856</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643587</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P21" t="n">
         <v>2328.464088060424</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028584</v>
+        <v>599.9410747082369</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028584</v>
+        <v>431.00489178033</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028584</v>
+        <v>431.00489178033</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028584</v>
+        <v>431.00489178033</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>284.1149442824196</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>115.9396226022402</v>
       </c>
       <c r="H22" t="n">
         <v>97.21709146028584</v>
@@ -5937,25 +5937,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1382.222354598086</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1158.436939387592</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U22" t="n">
-        <v>869.3083006011506</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="V22" t="n">
-        <v>614.6238123952637</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="W22" t="n">
-        <v>325.2066423583032</v>
+        <v>1009.579090436494</v>
       </c>
       <c r="X22" t="n">
-        <v>97.21709146028584</v>
+        <v>781.5895395384766</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028584</v>
+        <v>781.5895395384766</v>
       </c>
     </row>
     <row r="23">
@@ -5965,7 +5965,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
         <v>2059.358867610191</v>
@@ -5980,7 +5980,7 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H23" t="n">
         <v>179.8222783822462</v>
@@ -5992,16 +5992,16 @@
         <v>365.8813331823786</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
@@ -6025,16 +6025,16 @@
         <v>4262.3578574653</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6059,7 +6059,7 @@
         <v>358.2718071316294</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H24" t="n">
         <v>125.4002551675024</v>
@@ -6068,25 +6068,25 @@
         <v>97.21709146028583</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K24" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L24" t="n">
-        <v>534.5429807341673</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M24" t="n">
-        <v>1247.466478653857</v>
+        <v>841.863114014129</v>
       </c>
       <c r="N24" t="n">
-        <v>2051.878056918008</v>
+        <v>1171.725741678162</v>
       </c>
       <c r="O24" t="n">
-        <v>2331.418122136705</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P24" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3570.689985294727</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C25" t="n">
-        <v>3570.689985294727</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D25" t="n">
-        <v>3570.689985294727</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E25" t="n">
-        <v>3570.689985294727</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F25" t="n">
-        <v>3570.689985294727</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G25" t="n">
-        <v>3570.689985294727</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H25" t="n">
-        <v>3570.689985294727</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I25" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J25" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
-        <v>4411.546387431055</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>4645.421365436452</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>4822.021130042135</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>4860.854573014291</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>4860.854573014291</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>4660.934562929844</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>4660.934562929844</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U25" t="n">
-        <v>4371.805924143402</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V25" t="n">
-        <v>4117.121435937515</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W25" t="n">
-        <v>3827.704265900555</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X25" t="n">
-        <v>3791.482564438257</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="Y25" t="n">
-        <v>3570.689985294727</v>
+        <v>97.21709146028583</v>
       </c>
     </row>
     <row r="26">
@@ -6223,19 +6223,19 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
         <v>3183.709822619127</v>
@@ -6244,19 +6244,19 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
         <v>4262.357857465301</v>
@@ -6293,28 +6293,28 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G27" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571608</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636248</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
         <v>1558.376451307619</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>773.454678735334</v>
+        <v>1029.666285013068</v>
       </c>
       <c r="C28" t="n">
-        <v>773.454678735334</v>
+        <v>860.7301020851612</v>
       </c>
       <c r="D28" t="n">
-        <v>773.454678735334</v>
+        <v>710.6134626728254</v>
       </c>
       <c r="E28" t="n">
-        <v>625.5415851529409</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="F28" t="n">
-        <v>478.6516376550305</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G28" t="n">
-        <v>310.4763159748511</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6417,19 +6417,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="U28" t="n">
-        <v>1209.787631771461</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V28" t="n">
-        <v>955.1031435655738</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W28" t="n">
-        <v>955.1031435655738</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="X28" t="n">
-        <v>955.1031435655738</v>
+        <v>1270.926719659885</v>
       </c>
       <c r="Y28" t="n">
-        <v>955.1031435655738</v>
+        <v>1211.314749843308</v>
       </c>
     </row>
     <row r="29">
@@ -6439,7 +6439,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
         <v>2059.358867610191</v>
@@ -6448,19 +6448,19 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
         <v>365.8813331823787</v>
@@ -6481,16 +6481,16 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
@@ -6499,16 +6499,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6539,7 +6539,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
         <v>263.5382936126482</v>
@@ -6551,7 +6551,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
         <v>1558.376451307619</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1096.475226584133</v>
+        <v>861.4909633328887</v>
       </c>
       <c r="C31" t="n">
-        <v>927.5390436562259</v>
+        <v>692.5547804049818</v>
       </c>
       <c r="D31" t="n">
-        <v>777.4224042438901</v>
+        <v>542.438140992646</v>
       </c>
       <c r="E31" t="n">
-        <v>629.509310661497</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="F31" t="n">
-        <v>482.6193631635866</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G31" t="n">
-        <v>359.1696912903951</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H31" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241957</v>
@@ -6648,25 +6648,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U31" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V31" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="W31" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="X31" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="Y31" t="n">
-        <v>1278.123691414372</v>
+        <v>1043.139428163128</v>
       </c>
     </row>
     <row r="32">
@@ -6679,70 +6679,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155877</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805458</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H32" t="n">
-        <v>179.822278382245</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3224.712326690732</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C33" t="n">
-        <v>3050.259297409605</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D33" t="n">
-        <v>2901.324887748354</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E33" t="n">
-        <v>2742.087432742898</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>2595.552874769783</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G33" t="n">
-        <v>2458.626196373968</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>2362.681322805656</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>2334.49815909844</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>2500.819361250802</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>2911.709630095315</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>3158.474758001779</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>3465.794891281741</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
-        <v>3795.657518945773</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>4075.19758416447</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>4565.745155698577</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
-        <v>4860.854573014291</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
-        <v>4860.854573014291</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S33" t="n">
-        <v>4720.948468098066</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T33" t="n">
-        <v>4526.033852021844</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U33" t="n">
-        <v>4297.928927641231</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V33" t="n">
-        <v>4062.776819409488</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W33" t="n">
-        <v>3808.539462681287</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X33" t="n">
-        <v>3600.687962475754</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y33" t="n">
-        <v>3392.9276637108</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C34" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D34" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E34" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F34" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N34" t="n">
-        <v>4411.546387431055</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O34" t="n">
-        <v>4645.421365436452</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>4822.021130042135</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q34" t="n">
-        <v>4860.854573014291</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>4860.854573014291</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>4744.160657054475</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T34" t="n">
-        <v>4520.375241843982</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U34" t="n">
-        <v>4231.24660305754</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V34" t="n">
-        <v>3976.562114851653</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W34" t="n">
-        <v>3687.144944814692</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X34" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y34" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="35">
@@ -6928,40 +6928,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
         <v>4726.561275231264</v>
@@ -7013,28 +7013,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>882.7763375151577</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C37" t="n">
-        <v>713.8401545872508</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D37" t="n">
-        <v>563.7235151749151</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E37" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F37" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G37" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
@@ -7101,10 +7101,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
@@ -7125,22 +7125,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T37" t="n">
-        <v>1498.916270557902</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="U37" t="n">
-        <v>1426.877995758005</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V37" t="n">
-        <v>1172.193507552118</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W37" t="n">
-        <v>882.7763375151577</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X37" t="n">
-        <v>882.7763375151577</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y37" t="n">
-        <v>882.7763375151577</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="38">
@@ -7150,13 +7150,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
@@ -7168,19 +7168,19 @@
         <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
@@ -7207,16 +7207,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C39" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D39" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E39" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G39" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H39" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>2500.819361250803</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>2911.709630095316</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>3158.47475800178</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>3465.794891281741</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
-        <v>3795.657518945774</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>4075.197584164471</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>4565.745155698578</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S39" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T39" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U39" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V39" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W39" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X39" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y39" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>4389.788938147092</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="C40" t="n">
-        <v>4220.852755219185</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="D40" t="n">
-        <v>4070.73611580685</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="E40" t="n">
-        <v>3922.823022224457</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F40" t="n">
-        <v>3775.933074726546</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G40" t="n">
-        <v>3607.757753046367</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K40" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M40" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N40" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O40" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q40" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>4860.854573014292</v>
+        <v>1443.626281654772</v>
       </c>
       <c r="T40" t="n">
-        <v>4860.854573014292</v>
+        <v>1219.840866444278</v>
       </c>
       <c r="U40" t="n">
-        <v>4860.854573014292</v>
+        <v>930.7122276578364</v>
       </c>
       <c r="V40" t="n">
-        <v>4860.854573014292</v>
+        <v>930.7122276578364</v>
       </c>
       <c r="W40" t="n">
-        <v>4571.437402977332</v>
+        <v>641.2950576208757</v>
       </c>
       <c r="X40" t="n">
-        <v>4571.437402977332</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="Y40" t="n">
-        <v>4571.437402977332</v>
+        <v>413.3055067228584</v>
       </c>
     </row>
     <row r="41">
@@ -7387,34 +7387,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795207</v>
@@ -7438,22 +7438,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7499,7 +7499,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
         <v>1558.376451307619</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>711.072954880832</v>
+        <v>579.0685056491545</v>
       </c>
       <c r="C43" t="n">
-        <v>542.1367719529251</v>
+        <v>410.1323227212476</v>
       </c>
       <c r="D43" t="n">
-        <v>392.0201325405893</v>
+        <v>410.1323227212476</v>
       </c>
       <c r="E43" t="n">
-        <v>244.1070389581962</v>
+        <v>410.1323227212476</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028584</v>
+        <v>410.1323227212476</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H43" t="n">
         <v>97.21709146028584</v>
@@ -7596,25 +7596,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T43" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U43" t="n">
-        <v>1009.867621687013</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V43" t="n">
-        <v>1009.867621687013</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W43" t="n">
-        <v>1009.867621687013</v>
+        <v>1209.499100520942</v>
       </c>
       <c r="X43" t="n">
-        <v>1009.867621687013</v>
+        <v>981.5095496229244</v>
       </c>
       <c r="Y43" t="n">
-        <v>892.7214197110717</v>
+        <v>760.7169704793943</v>
       </c>
     </row>
     <row r="44">
@@ -7627,46 +7627,46 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
         <v>4801.62743720783</v>
@@ -7681,16 +7681,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7736,7 +7736,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N45" t="n">
         <v>1558.376451307619</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1029.666285013068</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>860.7301020851612</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>710.6134626728254</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>562.7003690904323</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
         <v>97.21709146028584</v>
@@ -7833,25 +7833,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>1275.130855347408</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U46" t="n">
-        <v>1275.130855347408</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V46" t="n">
-        <v>1275.130855347408</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W46" t="n">
-        <v>1275.130855347408</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X46" t="n">
-        <v>1275.130855347408</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y46" t="n">
-        <v>1211.314749843308</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
   </sheetData>
@@ -8066,7 +8066,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>422.2865794093292</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8312,10 +8312,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415596</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951776</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8543,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>359.9065542451747</v>
+        <v>359.9065542451761</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8768,16 +8768,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>253.7371603504752</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -8786,13 +8786,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9005,13 +9005,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>176.7176547498458</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9020,16 +9020,16 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9242,10 +9242,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9257,16 +9257,16 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>176.7176547498452</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9479,13 +9479,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>96.03744927814688</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9497,7 +9497,7 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776752</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
@@ -9725,22 +9725,22 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>360.5026862907255</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10135,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776745</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10606,10 +10606,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599059</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298293</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10664,31 +10664,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10831,7 +10831,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928327</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776745</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11320,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>145.6782574668209</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>44.278393308918</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23500,7 +23500,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23655,25 +23655,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,25 +23703,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>10.08817004149523</v>
       </c>
       <c r="Y16" t="n">
-        <v>44.278393308918</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23901,16 +23901,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>21.7657442162876</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,7 +23940,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
@@ -23949,7 +23949,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>18.57218375873671</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24126,10 +24126,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24138,13 +24138,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>130.3785225370013</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -24177,16 +24177,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>82.39383318338545</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24208,7 +24208,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -24265,7 +24265,7 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -24384,7 +24384,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24417,7 +24417,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24429,10 +24429,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>189.8501709413627</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24499,7 +24499,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>1.080024958355352e-12</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -24603,10 +24603,10 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24618,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>48.20644156238851</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24657,19 +24657,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>159.5688032336832</v>
       </c>
     </row>
     <row r="29">
@@ -24852,13 +24852,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>44.278393308918</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,10 +24888,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.2373523985773</v>
@@ -24906,7 +24906,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>186.8339504232609</v>
       </c>
     </row>
     <row r="32">
@@ -24937,7 +24937,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.165290086646564e-12</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -25314,22 +25314,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
         <v>110.419245464272</v>
@@ -25365,10 +25365,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>103.0576765518774</v>
       </c>
       <c r="U37" t="n">
-        <v>214.9194603466792</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25377,10 +25377,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25548,25 +25548,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>1.797492829141845</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
         <v>110.419245464272</v>
@@ -25599,13 +25599,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>143.1837209695045</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25791,19 +25791,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>5.621317882561556</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>110.419245464272</v>
@@ -25836,25 +25836,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>102.6099133959131</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26022,25 +26022,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
         <v>110.419245464272</v>
@@ -26073,25 +26073,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>155.4067089030353</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>906495.7753621623</v>
+        <v>906495.7753621622</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>906495.7753621624</v>
+        <v>906495.7753621622</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>906495.7753621623</v>
+        <v>906495.7753621622</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>906495.7753621622</v>
+        <v>906495.7753621623</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>906495.775362162</v>
+        <v>906495.7753621623</v>
       </c>
     </row>
     <row r="11">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>906495.7753621622</v>
+        <v>906495.7753621623</v>
       </c>
     </row>
     <row r="15">
@@ -26313,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>492625.0619185698</v>
+        <v>492625.0619185697</v>
       </c>
       <c r="C2" t="n">
-        <v>492625.0619185698</v>
+        <v>492625.06191857</v>
       </c>
       <c r="D2" t="n">
-        <v>492625.0619185698</v>
+        <v>492625.0619185697</v>
       </c>
       <c r="E2" t="n">
         <v>469234.8716852504</v>
@@ -26331,31 +26331,31 @@
         <v>469234.8716852504</v>
       </c>
       <c r="H2" t="n">
+        <v>469234.8716852504</v>
+      </c>
+      <c r="I2" t="n">
         <v>469234.8716852503</v>
-      </c>
-      <c r="I2" t="n">
-        <v>469234.8716852505</v>
       </c>
       <c r="J2" t="n">
         <v>469234.8716852504</v>
       </c>
       <c r="K2" t="n">
+        <v>469234.8716852503</v>
+      </c>
+      <c r="L2" t="n">
+        <v>469234.8716852503</v>
+      </c>
+      <c r="M2" t="n">
         <v>469234.8716852505</v>
       </c>
-      <c r="L2" t="n">
-        <v>469234.8716852505</v>
-      </c>
-      <c r="M2" t="n">
-        <v>469234.8716852506</v>
-      </c>
       <c r="N2" t="n">
-        <v>469234.8716852505</v>
+        <v>469234.8716852503</v>
       </c>
       <c r="O2" t="n">
-        <v>469234.8716852505</v>
+        <v>469234.8716852503</v>
       </c>
       <c r="P2" t="n">
-        <v>469234.8716852504</v>
+        <v>469234.8716852503</v>
       </c>
     </row>
     <row r="3">
@@ -26365,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2.434074986013002e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768957</v>
+        <v>525160.036476896</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26392,13 +26392,13 @@
         <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>1.170374162029475e-10</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,22 +26420,22 @@
         <v>147917.0487159208</v>
       </c>
       <c r="C4" t="n">
+        <v>147917.0487159209</v>
+      </c>
+      <c r="D4" t="n">
         <v>147917.0487159208</v>
       </c>
-      <c r="D4" t="n">
-        <v>147917.0487159207</v>
-      </c>
       <c r="E4" t="n">
+        <v>7916.731656007485</v>
+      </c>
+      <c r="F4" t="n">
+        <v>7916.731656007485</v>
+      </c>
+      <c r="G4" t="n">
+        <v>7916.731656007485</v>
+      </c>
+      <c r="H4" t="n">
         <v>7916.731656007484</v>
-      </c>
-      <c r="F4" t="n">
-        <v>7916.731656007484</v>
-      </c>
-      <c r="G4" t="n">
-        <v>7916.731656007484</v>
-      </c>
-      <c r="H4" t="n">
-        <v>7916.731656007483</v>
       </c>
       <c r="I4" t="n">
         <v>7916.731656007483</v>
@@ -26444,22 +26444,22 @@
         <v>7916.731656007484</v>
       </c>
       <c r="K4" t="n">
-        <v>7916.731656007487</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="L4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.731656007484</v>
       </c>
       <c r="M4" t="n">
-        <v>7916.731656007486</v>
+        <v>7916.731656007485</v>
       </c>
       <c r="N4" t="n">
         <v>7916.731656007483</v>
       </c>
       <c r="O4" t="n">
-        <v>7916.731656007484</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="P4" t="n">
-        <v>7916.731656007484</v>
+        <v>7916.731656007483</v>
       </c>
     </row>
     <row r="5">
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
         <v>91987.32594871661</v>
@@ -26484,7 +26484,7 @@
         <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871664</v>
@@ -26493,25 +26493,25 @@
         <v>91987.32594871661</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-328118.9440753049</v>
+        <v>-328118.9440753051</v>
       </c>
       <c r="C6" t="n">
-        <v>261848.9351392395</v>
+        <v>261848.9351392396</v>
       </c>
       <c r="D6" t="n">
         <v>261848.9351392394</v>
       </c>
       <c r="E6" t="n">
-        <v>-155829.2223963694</v>
+        <v>-156803.8136560913</v>
       </c>
       <c r="F6" t="n">
-        <v>369330.8140805264</v>
+        <v>368356.2228208048</v>
       </c>
       <c r="G6" t="n">
-        <v>369330.8140805264</v>
+        <v>368356.2228208045</v>
       </c>
       <c r="H6" t="n">
-        <v>369330.8140805262</v>
+        <v>368356.2228208047</v>
       </c>
       <c r="I6" t="n">
-        <v>369330.8140805264</v>
+        <v>368356.2228208046</v>
       </c>
       <c r="J6" t="n">
-        <v>192907.5948879333</v>
+        <v>191933.0036282117</v>
       </c>
       <c r="K6" t="n">
-        <v>369330.8140805262</v>
+        <v>368356.2228208045</v>
       </c>
       <c r="L6" t="n">
-        <v>369330.8140805264</v>
+        <v>368356.2228208046</v>
       </c>
       <c r="M6" t="n">
-        <v>234529.7988466895</v>
+        <v>233555.2075869676</v>
       </c>
       <c r="N6" t="n">
-        <v>369330.8140805264</v>
+        <v>368356.2228208046</v>
       </c>
       <c r="O6" t="n">
-        <v>369330.8140805264</v>
+        <v>368356.2228208045</v>
       </c>
       <c r="P6" t="n">
-        <v>369330.8140805264</v>
+        <v>368356.2228208045</v>
       </c>
     </row>
   </sheetData>
@@ -26740,46 +26740,46 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.743664217087</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545559</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26965,16 +26965,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370132</v>
+        <v>452.6387412370135</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990169</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545559</v>
       </c>
       <c r="K4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990171</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990169</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>170.596836188166</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27390,10 +27390,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>0.4077074708224018</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -27432,19 +27432,19 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27536,10 +27536,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27548,16 +27548,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27581,7 +27581,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>10.68294653693471</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801579</v>
@@ -27602,10 +27602,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>1.882105749397113</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>53.30008710312372</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,28 +27663,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>321.468579306131</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27773,10 +27773,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,13 +27818,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>51.67144525558908</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
@@ -27833,16 +27833,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>123.9289676594881</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>375.9469818809428</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27906,19 +27906,19 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>33.34914881504955</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28013,13 +28013,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28031,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853696</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28070,13 +28070,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>96.92615468724711</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>49.68451974515114</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340047</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141001</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554472</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727437</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081579</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630672</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405369</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338307</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119868</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954669</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044139</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633806</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727386</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473559</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141116</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188921</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890692</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396483</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478009</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983124</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736702</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923049</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479579</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034986</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131474</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372668</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619158</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078616</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644448</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492007</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813582</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302246</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
-        <v>101.2724571246925</v>
+        <v>101.2724571246924</v>
       </c>
       <c r="M10" t="n">
-        <v>106.7776065917251</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666595</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175852</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383808</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678013</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701166</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695337</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197226</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315613</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31761,40 +31761,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M11" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31834,10 +31834,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J12" t="n">
         <v>168.7478056215733</v>
@@ -31846,7 +31846,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M12" t="n">
         <v>452.5584109724845</v>
@@ -31855,10 +31855,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q12" t="n">
         <v>227.9948068710956</v>
@@ -31870,7 +31870,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31916,7 +31916,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
@@ -31934,7 +31934,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
@@ -31946,10 +31946,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U13" t="n">
         <v>0.08167695791351813</v>
@@ -31998,40 +31998,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M14" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32071,10 +32071,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J15" t="n">
         <v>168.7478056215733</v>
@@ -32083,7 +32083,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M15" t="n">
         <v>452.5584109724845</v>
@@ -32092,10 +32092,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q15" t="n">
         <v>227.9948068710956</v>
@@ -32107,7 +32107,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32153,7 +32153,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
@@ -32171,7 +32171,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
@@ -32183,10 +32183,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U16" t="n">
         <v>0.08167695791351813</v>
@@ -32226,16 +32226,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32244,7 +32244,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32253,7 +32253,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32262,7 +32262,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32305,7 +32305,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32314,7 +32314,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32323,10 +32323,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32341,10 +32341,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32405,7 +32405,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32417,16 +32417,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32700,16 +32700,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32718,7 +32718,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32727,7 +32727,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32736,7 +32736,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32779,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32788,7 +32788,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32797,10 +32797,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32815,10 +32815,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32879,7 +32879,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32891,16 +32891,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32955,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32964,7 +32964,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32973,7 +32973,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33025,7 +33025,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33034,10 +33034,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33052,10 +33052,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33116,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33128,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33192,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33201,7 +33201,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33210,7 +33210,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33253,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33262,7 +33262,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33271,10 +33271,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33289,10 +33289,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33353,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33365,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33429,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33438,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33447,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33490,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33499,7 +33499,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33508,10 +33508,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33526,10 +33526,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33590,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33602,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33666,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33675,7 +33675,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33684,7 +33684,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33727,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33736,7 +33736,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33745,10 +33745,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33763,10 +33763,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33827,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33839,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33903,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33912,7 +33912,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33921,7 +33921,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33964,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33973,7 +33973,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33982,10 +33982,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -34000,10 +34000,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34064,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34076,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34140,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34149,7 +34149,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34158,7 +34158,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34201,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34210,7 +34210,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34219,10 +34219,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34237,10 +34237,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34301,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34313,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34377,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34386,7 +34386,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34395,7 +34395,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34447,7 +34447,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34456,10 +34456,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34474,10 +34474,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34538,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34550,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34786,7 +34786,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>486.0228424856231</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
         <v>559.3197334338902</v>
@@ -34798,7 +34798,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35026,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730626</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343421</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435304</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060967</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492239</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530454</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.93761631168</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898691</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770697</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031299</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.441326826294</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355116</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O9" t="n">
-        <v>444.58174042459</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735648</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137342</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713961</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850086</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535657</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N10" t="n">
-        <v>148.3708461458881</v>
+        <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873156</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M11" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490663</v>
       </c>
       <c r="K12" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504662</v>
+        <v>564.1615374009414</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O12" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507407</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299105</v>
@@ -35576,7 +35576,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N13" t="n">
         <v>273.2768778056036</v>
@@ -35588,7 +35588,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M14" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490663</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>425.9753597058701</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P15" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507407</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299105</v>
@@ -35813,7 +35813,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N16" t="n">
         <v>273.2768778056036</v>
@@ -35825,7 +35825,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35886,13 +35886,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35907,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>264.7306875349194</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36056,13 +36056,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36199,13 +36199,13 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K21" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>345.2951542341712</v>
       </c>
       <c r="M21" t="n">
         <v>310.4243770504663</v>
@@ -36217,7 +36217,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975091999</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
@@ -36360,13 +36360,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36381,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K24" t="n">
         <v>150.5754385879392</v>
@@ -36445,19 +36445,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411081</v>
+        <v>642.8663885318336</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36530,13 +36530,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36597,13 +36597,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36682,16 +36682,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36767,13 +36767,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,13 +36834,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034995</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36919,16 +36919,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37004,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37071,13 +37071,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37156,16 +37156,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975091992</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37241,13 +37241,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,13 +37308,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37326,10 +37326,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.499584150206</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37478,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,13 +37545,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37630,16 +37630,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975091992</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37715,13 +37715,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37782,13 +37782,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37867,16 +37867,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37952,13 +37952,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38019,13 +38019,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38104,16 +38104,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38189,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_1_24.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_1_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1756611.190567832</v>
+        <v>1761550.453416863</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800621</v>
+        <v>2264668.837800622</v>
       </c>
     </row>
     <row r="8">
@@ -673,7 +673,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>413.3764625499726</v>
+        <v>162.1522950416826</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -715,7 +715,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -743,10 +743,10 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646389</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>157.6450804554007</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -816,16 +816,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -882,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>223.82754963964</v>
+        <v>108.6100941567957</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -907,13 +907,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -946,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>153.8564357574052</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>6.283679164003906</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1132,19 +1132,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>5.983388191318943</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>13.784170020795</v>
@@ -1180,16 +1180,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>157.2443566923301</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>155.2114886365809</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1359,7 +1359,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>126.0887386816668</v>
       </c>
     </row>
     <row r="11">
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
-        <v>208.4827883385011</v>
+        <v>208.482788338503</v>
       </c>
       <c r="U11" t="n">
         <v>251.078595249801</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1536,13 +1536,13 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>93.21955153433346</v>
       </c>
       <c r="G13" t="n">
-        <v>20.81531099655667</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
@@ -1593,7 +1593,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1612,7 +1612,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206818</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1624,10 +1624,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113183</v>
       </c>
       <c r="I14" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1770,13 +1770,13 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>101.1057214040792</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1821,16 +1821,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>215.6214853475419</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1858,10 +1858,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H17" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
         <v>81.77913505274074</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2007,19 +2007,19 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>45.2195271891069</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2052,16 +2052,16 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>233.5654595650913</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2134,13 +2134,13 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338503</v>
       </c>
       <c r="U20" t="n">
         <v>251.078595249801</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2247,16 +2247,16 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>164.8793724750995</v>
       </c>
       <c r="H22" t="n">
-        <v>18.53530583053485</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2289,22 +2289,22 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2320,7 +2320,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710062</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -2335,7 +2335,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H23" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113183</v>
       </c>
       <c r="I23" t="n">
         <v>81.77913505274074</v>
@@ -2478,19 +2478,19 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>83.62275566270739</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2526,10 +2526,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>139.1537278750038</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
@@ -2541,7 +2541,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2614,7 +2614,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2730,7 +2730,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2775,13 +2775,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>207.9296784859477</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>59.01585011841158</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2845,10 +2845,10 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U29" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2949,13 +2949,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>143.6011470735012</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -2964,10 +2964,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>31.75070292883384</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3195,7 +3195,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>120.8530343211901</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3207,7 +3207,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>115.5269768002178</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
@@ -3252,7 +3252,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3423,13 +3423,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3438,7 +3438,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>97.68000121430518</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3477,22 +3477,22 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>118.4898845065119</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3669,16 +3669,16 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3711,16 +3711,16 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>54.73708901409875</v>
+        <v>42.7396614681393</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3897,10 +3897,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3912,10 +3912,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>160.872250580816</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3948,16 +3948,16 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4134,13 +4134,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4185,13 +4185,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>203.8435192151918</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>127.6176159584065</v>
       </c>
     </row>
   </sheetData>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>631.906440948188</v>
+        <v>378.1446555862789</v>
       </c>
       <c r="C2" t="n">
-        <v>631.906440948188</v>
+        <v>378.1446555862789</v>
       </c>
       <c r="D2" t="n">
-        <v>631.906440948188</v>
+        <v>378.1446555862789</v>
       </c>
       <c r="E2" t="n">
-        <v>631.906440948188</v>
+        <v>378.1446555862789</v>
       </c>
       <c r="F2" t="n">
-        <v>624.9609401989845</v>
+        <v>371.1991548370755</v>
       </c>
       <c r="G2" t="n">
         <v>207.4089578252748</v>
@@ -4327,31 +4327,31 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
         <v>2642.120401548716</v>
@@ -4363,19 +4363,19 @@
         <v>2465.942913862886</v>
       </c>
       <c r="U2" t="n">
-        <v>2465.942913862886</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V2" t="n">
-        <v>2134.880026519315</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="W2" t="n">
-        <v>1782.111371249201</v>
+        <v>1528.349585887292</v>
       </c>
       <c r="X2" t="n">
-        <v>1408.645612988121</v>
+        <v>1154.883827626212</v>
       </c>
       <c r="Y2" t="n">
-        <v>1018.50628101231</v>
+        <v>764.7444956504007</v>
       </c>
     </row>
     <row r="3">
@@ -4385,13 +4385,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170834</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359564</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E3" t="n">
         <v>505.8730812692495</v>
@@ -4406,10 +4406,10 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
         <v>309.190302261463</v>
@@ -4430,22 +4430,22 @@
         <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207638</v>
@@ -4454,7 +4454,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="4">
@@ -4464,13 +4464,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>99.59950625323012</v>
+        <v>397.6292392479589</v>
       </c>
       <c r="C4" t="n">
-        <v>99.59950625323012</v>
+        <v>397.6292392479589</v>
       </c>
       <c r="D4" t="n">
-        <v>99.59950625323012</v>
+        <v>247.5125998356232</v>
       </c>
       <c r="E4" t="n">
         <v>99.59950625323012</v>
@@ -4488,7 +4488,7 @@
         <v>99.59950625323012</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
@@ -4497,43 +4497,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>502.0405502269999</v>
+        <v>618.4218183914891</v>
       </c>
       <c r="Y4" t="n">
-        <v>281.2479710834698</v>
+        <v>397.6292392479589</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1187.828354776384</v>
+        <v>2323.103882821189</v>
       </c>
       <c r="C5" t="n">
-        <v>818.8658378359718</v>
+        <v>1954.141365880777</v>
       </c>
       <c r="D5" t="n">
-        <v>460.6001392292213</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="E5" t="n">
-        <v>74.81188663097703</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F5" t="n">
-        <v>67.86638588177355</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
         <v>53.94298182036445</v>
@@ -4567,10 +4567,10 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
         <v>881.2824271224076</v>
@@ -4594,25 +4594,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2541.738549849126</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2323.103882821189</v>
       </c>
       <c r="U5" t="n">
-        <v>2697.149091018222</v>
+        <v>2323.103882821189</v>
       </c>
       <c r="V5" t="n">
-        <v>2690.801940347511</v>
+        <v>2323.103882821189</v>
       </c>
       <c r="W5" t="n">
-        <v>2338.033285077397</v>
+        <v>2323.103882821189</v>
       </c>
       <c r="X5" t="n">
-        <v>1964.567526816317</v>
+        <v>2323.103882821189</v>
       </c>
       <c r="Y5" t="n">
-        <v>1574.428194840505</v>
+        <v>2323.103882821189</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4652,16 +4652,16 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
         <v>2525.076107152626</v>
@@ -4685,10 +4685,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4780,43 +4780,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>808.083928634017</v>
+        <v>837.1179892781316</v>
       </c>
       <c r="C8" t="n">
-        <v>439.1214116936052</v>
+        <v>837.1179892781316</v>
       </c>
       <c r="D8" t="n">
-        <v>80.85571308685473</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="E8" t="n">
-        <v>74.81188663097701</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177354</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548715</v>
+        <v>2538.316407490616</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548715</v>
+        <v>2538.316407490616</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548715</v>
+        <v>2284.554622128708</v>
       </c>
       <c r="V8" t="n">
-        <v>2311.057514205144</v>
+        <v>1953.491734785137</v>
       </c>
       <c r="W8" t="n">
-        <v>1958.28885893503</v>
+        <v>1600.723079515023</v>
       </c>
       <c r="X8" t="n">
-        <v>1584.82310067395</v>
+        <v>1227.257321253943</v>
       </c>
       <c r="Y8" t="n">
-        <v>1194.683768698139</v>
+        <v>837.1179892781316</v>
       </c>
     </row>
     <row r="9">
@@ -4880,7 +4880,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
@@ -4895,13 +4895,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="V10" t="n">
-        <v>571.3497027553424</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="W10" t="n">
-        <v>281.9325327183818</v>
+        <v>409.2948950230958</v>
       </c>
       <c r="X10" t="n">
-        <v>53.94298182036444</v>
+        <v>181.3053441250784</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5038,13 +5038,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5059,16 +5059,16 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
@@ -5117,25 +5117,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K12" t="n">
-        <v>549.598437470156</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L12" t="n">
-        <v>1163.495507227045</v>
+        <v>953.6472828615138</v>
       </c>
       <c r="M12" t="n">
-        <v>1722.015429253976</v>
+        <v>1722.015429253975</v>
       </c>
       <c r="N12" t="n">
-        <v>2051.878056918009</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136706</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P12" t="n">
         <v>2536.440602918915</v>
@@ -5175,46 +5175,46 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>585.5099430858311</v>
+        <v>510.7324460062429</v>
       </c>
       <c r="C13" t="n">
-        <v>416.5737601579242</v>
+        <v>341.796263078336</v>
       </c>
       <c r="D13" t="n">
-        <v>416.5737601579242</v>
+        <v>341.796263078336</v>
       </c>
       <c r="E13" t="n">
-        <v>268.6606665755311</v>
+        <v>341.796263078336</v>
       </c>
       <c r="F13" t="n">
-        <v>268.6606665755311</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G13" t="n">
-        <v>247.6350999123425</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
         <v>1460.082827585746</v>
@@ -5223,28 +5223,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1164.055751909234</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U13" t="n">
-        <v>874.9271131227918</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V13" t="n">
-        <v>874.9271131227918</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="W13" t="n">
-        <v>585.5099430858311</v>
+        <v>920.3704617344999</v>
       </c>
       <c r="X13" t="n">
-        <v>585.5099430858311</v>
+        <v>692.3809108364826</v>
       </c>
       <c r="Y13" t="n">
-        <v>585.5099430858311</v>
+        <v>692.3809108364826</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D14" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5354,25 +5354,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277032</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>709.4934589365146</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M15" t="n">
-        <v>1016.813592216476</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N15" t="n">
-        <v>1346.676219880509</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O15" t="n">
-        <v>2016.139981183168</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P15" t="n">
         <v>2536.440602918915</v>
@@ -5412,46 +5412,46 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028584</v>
+        <v>349.4607221898733</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028584</v>
+        <v>349.4607221898733</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028584</v>
+        <v>199.3440827775376</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028584</v>
+        <v>199.3440827775376</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
         <v>1460.082827585746</v>
@@ -5463,25 +5463,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473454</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
         <v>1075.21084526296</v>
       </c>
       <c r="U16" t="n">
-        <v>786.0822064765184</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V16" t="n">
-        <v>786.0822064765184</v>
+        <v>820.5263570570736</v>
       </c>
       <c r="W16" t="n">
-        <v>496.6650364395578</v>
+        <v>531.109187020113</v>
       </c>
       <c r="X16" t="n">
-        <v>278.8655562905255</v>
+        <v>531.109187020113</v>
       </c>
       <c r="Y16" t="n">
-        <v>278.8655562905255</v>
+        <v>531.109187020113</v>
       </c>
     </row>
     <row r="17">
@@ -5491,37 +5491,37 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514077</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
@@ -5530,37 +5530,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5591,28 +5591,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
         <v>138.7081686256435</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277033</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L18" t="n">
-        <v>534.5429807341674</v>
+        <v>563.7235867775516</v>
       </c>
       <c r="M18" t="n">
-        <v>841.863114014129</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N18" t="n">
-        <v>1171.725741678162</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O18" t="n">
-        <v>1841.189502980821</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P18" t="n">
-        <v>2361.490124716568</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5649,40 +5649,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>545.6648329070714</v>
+        <v>437.6964226305963</v>
       </c>
       <c r="C19" t="n">
-        <v>545.6648329070714</v>
+        <v>437.6964226305963</v>
       </c>
       <c r="D19" t="n">
-        <v>395.5481934947356</v>
+        <v>437.6964226305963</v>
       </c>
       <c r="E19" t="n">
-        <v>247.6350999123426</v>
+        <v>289.7833290482032</v>
       </c>
       <c r="F19" t="n">
-        <v>247.6350999123426</v>
+        <v>142.8933815502928</v>
       </c>
       <c r="G19" t="n">
-        <v>247.6350999123426</v>
+        <v>142.8933815502928</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K19" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5691,34 +5691,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T19" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U19" t="n">
-        <v>1298.996260473455</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V19" t="n">
-        <v>1063.071553842049</v>
+        <v>955.1031435655742</v>
       </c>
       <c r="W19" t="n">
-        <v>773.6543838050887</v>
+        <v>665.6859735286137</v>
       </c>
       <c r="X19" t="n">
-        <v>545.6648329070714</v>
+        <v>437.6964226305963</v>
       </c>
       <c r="Y19" t="n">
-        <v>545.6648329070714</v>
+        <v>437.6964226305963</v>
       </c>
     </row>
     <row r="20">
@@ -5749,13 +5749,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795207</v>
@@ -5770,16 +5770,16 @@
         <v>3889.732883643324</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
@@ -5828,28 +5828,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
         <v>138.7081686256435</v>
       </c>
       <c r="K21" t="n">
-        <v>549.5984374701561</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L21" t="n">
-        <v>891.4406401619856</v>
+        <v>534.5429807341676</v>
       </c>
       <c r="M21" t="n">
-        <v>1198.760773441947</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N21" t="n">
-        <v>1528.62340110598</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O21" t="n">
-        <v>1808.163466324677</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5886,40 +5886,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>599.9410747082369</v>
+        <v>731.0291971045613</v>
       </c>
       <c r="C22" t="n">
-        <v>431.00489178033</v>
+        <v>562.0930141766544</v>
       </c>
       <c r="D22" t="n">
-        <v>431.00489178033</v>
+        <v>562.0930141766544</v>
       </c>
       <c r="E22" t="n">
-        <v>431.00489178033</v>
+        <v>414.1799205942613</v>
       </c>
       <c r="F22" t="n">
-        <v>284.1149442824196</v>
+        <v>414.1799205942613</v>
       </c>
       <c r="G22" t="n">
-        <v>115.9396226022402</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K22" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5928,34 +5928,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T22" t="n">
-        <v>1298.996260473455</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U22" t="n">
-        <v>1298.996260473455</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="V22" t="n">
-        <v>1298.996260473455</v>
+        <v>1020.446367141522</v>
       </c>
       <c r="W22" t="n">
-        <v>1009.579090436494</v>
+        <v>731.0291971045613</v>
       </c>
       <c r="X22" t="n">
-        <v>781.5895395384766</v>
+        <v>731.0291971045613</v>
       </c>
       <c r="Y22" t="n">
-        <v>781.5895395384766</v>
+        <v>731.0291971045613</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D23" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H23" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6056,37 +6056,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>534.5429807341674</v>
+        <v>1099.417155020476</v>
       </c>
       <c r="M24" t="n">
-        <v>841.863114014129</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N24" t="n">
-        <v>1171.725741678162</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O24" t="n">
-        <v>1808.163466324677</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028583</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028583</v>
+        <v>496.7497906007063</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028583</v>
+        <v>496.7497906007063</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028583</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028583</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6153,10 +6153,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6174,25 +6174,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>1158.436939387592</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U25" t="n">
-        <v>869.3083006011506</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V25" t="n">
-        <v>614.6238123952637</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W25" t="n">
-        <v>325.2066423583032</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X25" t="n">
-        <v>97.21709146028583</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028583</v>
+        <v>665.6859735286132</v>
       </c>
     </row>
     <row r="26">
@@ -6202,43 +6202,43 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
@@ -6262,16 +6262,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6323,7 +6323,7 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2358.217138262064</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1029.666285013068</v>
+        <v>879.2482765610114</v>
       </c>
       <c r="C28" t="n">
-        <v>860.7301020851612</v>
+        <v>710.3120936331045</v>
       </c>
       <c r="D28" t="n">
-        <v>710.6134626728254</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="E28" t="n">
-        <v>562.7003690904323</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F28" t="n">
-        <v>415.8104215925219</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G28" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
         <v>97.21709146028584</v>
@@ -6423,13 +6423,13 @@
         <v>1498.916270557902</v>
       </c>
       <c r="W28" t="n">
-        <v>1498.916270557902</v>
+        <v>1288.886292289268</v>
       </c>
       <c r="X28" t="n">
-        <v>1270.926719659885</v>
+        <v>1060.896741391251</v>
       </c>
       <c r="Y28" t="n">
-        <v>1211.314749843308</v>
+        <v>1060.896741391251</v>
       </c>
     </row>
     <row r="29">
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>861.4909633328887</v>
+        <v>705.247117931376</v>
       </c>
       <c r="C31" t="n">
-        <v>692.5547804049818</v>
+        <v>705.247117931376</v>
       </c>
       <c r="D31" t="n">
-        <v>542.438140992646</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="E31" t="n">
-        <v>394.5250474102529</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F31" t="n">
-        <v>247.6350999123426</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G31" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
         <v>97.21709146028584</v>
@@ -6645,28 +6645,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S31" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T31" t="n">
-        <v>1075.21084526296</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U31" t="n">
-        <v>1075.21084526296</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="V31" t="n">
-        <v>1075.21084526296</v>
+        <v>933.2366688293934</v>
       </c>
       <c r="W31" t="n">
-        <v>1075.21084526296</v>
+        <v>933.2366688293934</v>
       </c>
       <c r="X31" t="n">
-        <v>1075.21084526296</v>
+        <v>705.247117931376</v>
       </c>
       <c r="Y31" t="n">
-        <v>1043.139428163128</v>
+        <v>705.247117931376</v>
       </c>
     </row>
     <row r="32">
@@ -6679,31 +6679,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6712,7 +6712,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
@@ -6733,16 +6733,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6779,25 +6779,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>563.7235867775516</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643587</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307619</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>97.21709146028584</v>
+        <v>330.8254548799445</v>
       </c>
       <c r="C34" t="n">
-        <v>97.21709146028584</v>
+        <v>330.8254548799445</v>
       </c>
       <c r="D34" t="n">
-        <v>97.21709146028584</v>
+        <v>330.8254548799445</v>
       </c>
       <c r="E34" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I34" t="n">
         <v>97.21709146028584</v>
@@ -6882,28 +6882,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S34" t="n">
-        <v>1382.222354598086</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T34" t="n">
-        <v>1158.436939387592</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U34" t="n">
-        <v>869.3083006011506</v>
+        <v>874.927113122792</v>
       </c>
       <c r="V34" t="n">
-        <v>614.6238123952637</v>
+        <v>620.2426249169051</v>
       </c>
       <c r="W34" t="n">
-        <v>325.2066423583032</v>
+        <v>330.8254548799445</v>
       </c>
       <c r="X34" t="n">
-        <v>97.21709146028584</v>
+        <v>330.8254548799445</v>
       </c>
       <c r="Y34" t="n">
-        <v>97.21709146028584</v>
+        <v>330.8254548799445</v>
       </c>
     </row>
     <row r="35">
@@ -6925,16 +6925,16 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
         <v>365.8813331823787</v>
@@ -6961,7 +6961,7 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
         <v>4726.561275231264</v>
@@ -7013,28 +7013,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>563.7235867775516</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643587</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.21709146028587</v>
+        <v>514.936581693766</v>
       </c>
       <c r="C37" t="n">
-        <v>97.21709146028587</v>
+        <v>346.0003987658591</v>
       </c>
       <c r="D37" t="n">
-        <v>97.21709146028587</v>
+        <v>195.8837593535234</v>
       </c>
       <c r="E37" t="n">
-        <v>97.21709146028587</v>
+        <v>195.8837593535234</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028587</v>
+        <v>195.8837593535234</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
@@ -7101,10 +7101,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
@@ -7125,22 +7125,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T37" t="n">
-        <v>1379.229518531123</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U37" t="n">
-        <v>1090.100879744681</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V37" t="n">
-        <v>835.416391538794</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="W37" t="n">
-        <v>545.9992215018333</v>
+        <v>696.5850465240057</v>
       </c>
       <c r="X37" t="n">
-        <v>318.0096706038159</v>
+        <v>696.5850465240057</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.21709146028587</v>
+        <v>696.5850465240057</v>
       </c>
     </row>
     <row r="38">
@@ -7150,13 +7150,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
@@ -7168,7 +7168,7 @@
         <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028584</v>
@@ -7207,16 +7207,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7253,25 +7253,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>563.7235867775516</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643587</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>413.3055067228584</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="C40" t="n">
-        <v>413.3055067228584</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="D40" t="n">
-        <v>413.3055067228584</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="E40" t="n">
-        <v>265.3924131404652</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="F40" t="n">
-        <v>265.3924131404652</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H40" t="n">
         <v>97.21709146028584</v>
@@ -7359,25 +7359,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1443.626281654772</v>
+        <v>1455.74489533756</v>
       </c>
       <c r="T40" t="n">
-        <v>1219.840866444278</v>
+        <v>1455.74489533756</v>
       </c>
       <c r="U40" t="n">
-        <v>930.7122276578364</v>
+        <v>1166.616256551118</v>
       </c>
       <c r="V40" t="n">
-        <v>930.7122276578364</v>
+        <v>911.9317683452309</v>
       </c>
       <c r="W40" t="n">
-        <v>641.2950576208757</v>
+        <v>622.5145983082703</v>
       </c>
       <c r="X40" t="n">
-        <v>413.3055067228584</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="Y40" t="n">
-        <v>413.3055067228584</v>
+        <v>394.5250474102529</v>
       </c>
     </row>
     <row r="41">
@@ -7390,22 +7390,22 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155879</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028584</v>
@@ -7414,7 +7414,7 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795207</v>
@@ -7423,7 +7423,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
@@ -7438,22 +7438,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7490,25 +7490,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643587</v>
+        <v>1670.043068977054</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>1999.905696641086</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>579.0685056491545</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C43" t="n">
-        <v>410.1323227212476</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D43" t="n">
-        <v>410.1323227212476</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E43" t="n">
-        <v>410.1323227212476</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
-        <v>410.1323227212476</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
         <v>97.21709146028584</v>
@@ -7596,25 +7596,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T43" t="n">
-        <v>1498.916270557902</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U43" t="n">
-        <v>1498.916270557902</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V43" t="n">
-        <v>1498.916270557902</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W43" t="n">
-        <v>1209.499100520942</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X43" t="n">
-        <v>981.5095496229244</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y43" t="n">
-        <v>760.7169704793943</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="44">
@@ -7782,10 +7782,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.21709146028584</v>
+        <v>416.2699138005285</v>
       </c>
       <c r="C46" t="n">
-        <v>97.21709146028584</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D46" t="n">
         <v>97.21709146028584</v>
@@ -7833,25 +7833,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T46" t="n">
-        <v>1075.21084526296</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U46" t="n">
-        <v>869.3083006011506</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V46" t="n">
-        <v>614.6238123952637</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W46" t="n">
-        <v>325.2066423583032</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="X46" t="n">
-        <v>97.21709146028584</v>
+        <v>726.8250614170374</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.21709146028584</v>
+        <v>597.9183786307682</v>
       </c>
     </row>
   </sheetData>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951786</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8300,7 +8300,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050816</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
@@ -8312,7 +8312,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>199.0269485415596</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8543,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>359.9065542451761</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747119</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8774,10 +8774,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>158.8724419039329</v>
       </c>
       <c r="M12" t="n">
-        <v>253.7371603504752</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.7842838544522</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9011,25 +9011,25 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>176.7176547498458</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.7842838544522</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9248,10 +9248,10 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>29.47535963978191</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -9260,13 +9260,13 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>176.7176547498452</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9482,28 +9482,28 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>96.03744927814688</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>409.7003683229574</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9716,13 +9716,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>180.0237016735871</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9731,13 +9731,13 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>360.5026862907255</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>34.78428385445217</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K26" t="n">
         <v>324.1454125711647</v>
@@ -9971,10 +9971,10 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776752</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>180.0237016735871</v>
       </c>
       <c r="R27" t="n">
         <v>34.78428385445217</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10427,28 +10427,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>29.47535963978208</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>34.78428385445217</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298293</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10664,28 +10664,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>29.47535963978208</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>34.78428385445217</v>
@@ -10901,28 +10901,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>29.47535963978208</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>34.78428385445217</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11138,28 +11138,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>52.49733361305249</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>34.78428385445217</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23424,13 +23424,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>52.20149648859778</v>
       </c>
       <c r="G13" t="n">
-        <v>145.6782574668209</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23500,7 +23500,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23658,13 +23658,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>44.31532661885205</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
@@ -23709,16 +23709,16 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>10.08817004149523</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23895,19 +23895,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>103.6943011784292</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -23940,16 +23940,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>18.57218375873671</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24135,16 +24135,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>1.614195988278112</v>
       </c>
       <c r="H22" t="n">
-        <v>130.3785225370013</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -24177,22 +24177,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24208,7 +24208,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -24366,19 +24366,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>62.81120698386178</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
@@ -24414,10 +24414,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>82.39383318338548</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24618,7 +24618,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -24663,13 +24663,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>78.5933198506433</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>159.5688032336832</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24837,13 +24837,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>5.014325944711175</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24852,10 +24852,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
         <v>110.419245464272</v>
@@ -24885,28 +24885,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>186.8339504232609</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25083,7 +25083,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>25.58092832537908</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25095,7 +25095,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>82.39383318338545</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25311,13 +25311,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25326,7 +25326,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>68.81356724907241</v>
       </c>
       <c r="H37" t="n">
         <v>148.9138283675361</v>
@@ -25365,22 +25365,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>103.0576765518774</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25557,16 +25557,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>110.419245464272</v>
@@ -25599,16 +25599,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>143.1837209695045</v>
+        <v>155.1811485154639</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25785,10 +25785,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25800,10 +25800,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>5.621317882561556</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
         <v>110.419245464272</v>
@@ -25836,16 +25836,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26022,13 +26022,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26073,13 +26073,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>82.39383318338557</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>90.96703739368824</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>906495.7753621623</v>
+        <v>906495.7753621622</v>
       </c>
     </row>
     <row r="6">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>906495.7753621622</v>
+        <v>906495.7753621623</v>
       </c>
     </row>
     <row r="9">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>906495.7753621623</v>
+        <v>906495.7753621624</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>906495.7753621623</v>
+        <v>906495.7753621624</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>906495.7753621623</v>
+        <v>906495.7753621622</v>
       </c>
     </row>
     <row r="15">
@@ -26316,40 +26316,40 @@
         <v>492625.0619185697</v>
       </c>
       <c r="C2" t="n">
-        <v>492625.06191857</v>
+        <v>492625.0619185697</v>
       </c>
       <c r="D2" t="n">
-        <v>492625.0619185697</v>
+        <v>492625.0619185698</v>
       </c>
       <c r="E2" t="n">
         <v>469234.8716852504</v>
       </c>
       <c r="F2" t="n">
+        <v>469234.8716852504</v>
+      </c>
+      <c r="G2" t="n">
+        <v>469234.8716852503</v>
+      </c>
+      <c r="H2" t="n">
+        <v>469234.8716852503</v>
+      </c>
+      <c r="I2" t="n">
+        <v>469234.8716852504</v>
+      </c>
+      <c r="J2" t="n">
         <v>469234.8716852505</v>
-      </c>
-      <c r="G2" t="n">
-        <v>469234.8716852504</v>
-      </c>
-      <c r="H2" t="n">
-        <v>469234.8716852504</v>
-      </c>
-      <c r="I2" t="n">
-        <v>469234.8716852503</v>
-      </c>
-      <c r="J2" t="n">
-        <v>469234.8716852504</v>
       </c>
       <c r="K2" t="n">
         <v>469234.8716852503</v>
       </c>
       <c r="L2" t="n">
-        <v>469234.8716852503</v>
+        <v>469234.8716852504</v>
       </c>
       <c r="M2" t="n">
         <v>469234.8716852505</v>
       </c>
       <c r="N2" t="n">
-        <v>469234.8716852503</v>
+        <v>469234.8716852504</v>
       </c>
       <c r="O2" t="n">
         <v>469234.8716852503</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.036476896</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26423,40 +26423,40 @@
         <v>147917.0487159209</v>
       </c>
       <c r="D4" t="n">
-        <v>147917.0487159208</v>
+        <v>147917.0487159209</v>
       </c>
       <c r="E4" t="n">
-        <v>7916.731656007485</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="F4" t="n">
-        <v>7916.731656007485</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="G4" t="n">
-        <v>7916.731656007485</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="H4" t="n">
+        <v>7916.731656007483</v>
+      </c>
+      <c r="I4" t="n">
         <v>7916.731656007484</v>
       </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
         <v>7916.731656007483</v>
-      </c>
-      <c r="J4" t="n">
-        <v>7916.731656007484</v>
       </c>
       <c r="K4" t="n">
         <v>7916.731656007483</v>
       </c>
       <c r="L4" t="n">
-        <v>7916.731656007484</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="M4" t="n">
-        <v>7916.731656007485</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="N4" t="n">
         <v>7916.731656007483</v>
       </c>
       <c r="O4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.731656007484</v>
       </c>
       <c r="P4" t="n">
         <v>7916.731656007483</v>
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
@@ -26478,19 +26478,19 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
+        <v>91987.32594871665</v>
+      </c>
+      <c r="H5" t="n">
+        <v>91987.32594871665</v>
+      </c>
+      <c r="I5" t="n">
         <v>91987.32594871664</v>
-      </c>
-      <c r="H5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="I5" t="n">
-        <v>91987.32594871661</v>
       </c>
       <c r="J5" t="n">
         <v>91987.32594871664</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-328118.9440753051</v>
+        <v>-328118.944075305</v>
       </c>
       <c r="C6" t="n">
-        <v>261848.9351392396</v>
+        <v>261848.9351392394</v>
       </c>
       <c r="D6" t="n">
-        <v>261848.9351392394</v>
+        <v>261848.9351392395</v>
       </c>
       <c r="E6" t="n">
-        <v>-156803.8136560913</v>
+        <v>-155926.6815223421</v>
       </c>
       <c r="F6" t="n">
-        <v>368356.2228208048</v>
+        <v>369233.3549545542</v>
       </c>
       <c r="G6" t="n">
-        <v>368356.2228208045</v>
+        <v>369233.3549545539</v>
       </c>
       <c r="H6" t="n">
-        <v>368356.2228208047</v>
+        <v>369233.354954554</v>
       </c>
       <c r="I6" t="n">
-        <v>368356.2228208046</v>
+        <v>369233.3549545541</v>
       </c>
       <c r="J6" t="n">
-        <v>191933.0036282117</v>
+        <v>192810.1357619614</v>
       </c>
       <c r="K6" t="n">
-        <v>368356.2228208045</v>
+        <v>369233.3549545541</v>
       </c>
       <c r="L6" t="n">
-        <v>368356.2228208046</v>
+        <v>369233.3549545541</v>
       </c>
       <c r="M6" t="n">
-        <v>233555.2075869676</v>
+        <v>234432.339720717</v>
       </c>
       <c r="N6" t="n">
-        <v>368356.2228208046</v>
+        <v>369233.3549545542</v>
       </c>
       <c r="O6" t="n">
-        <v>368356.2228208045</v>
+        <v>369233.3549545541</v>
       </c>
       <c r="P6" t="n">
-        <v>368356.2228208045</v>
+        <v>369233.3549545539</v>
       </c>
     </row>
   </sheetData>
@@ -26743,19 +26743,19 @@
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="I3" t="n">
         <v>830.3824054541003</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26968,13 +26968,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370135</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545559</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27393,7 +27393,7 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0.4077074708224018</v>
+        <v>251.6318749791124</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -27435,7 +27435,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27536,16 +27536,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27602,7 +27602,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>1.882105749397113</v>
+        <v>117.0995612322415</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27627,13 +27627,13 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -27666,25 +27666,25 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>20.55927705156634</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>321.468579306131</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27852,19 +27852,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>375.9469818809428</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27900,16 +27900,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>17.17135611664142</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -28031,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28070,7 +28070,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>96.92615468724711</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28079,7 +28079,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>92.49591467042796</v>
       </c>
     </row>
     <row r="11">
@@ -31515,46 +31515,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,22 +31697,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104647</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,34 +31831,34 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
         <v>227.9948068710956</v>
@@ -31867,10 +31867,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361488</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31916,7 +31916,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
@@ -31931,10 +31931,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
@@ -31943,16 +31943,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104647</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,34 +32068,34 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
         <v>227.9948068710956</v>
@@ -32104,10 +32104,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361488</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32153,7 +32153,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
@@ -32168,10 +32168,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
@@ -32180,16 +32180,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32229,7 +32229,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I17" t="n">
         <v>128.6967545176652</v>
@@ -32238,31 +32238,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P17" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32311,31 +32311,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J18" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
@@ -32390,7 +32390,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32402,7 +32402,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N19" t="n">
         <v>229.1447054263751</v>
@@ -32414,19 +32414,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32466,7 +32466,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I20" t="n">
         <v>128.6967545176652</v>
@@ -32475,31 +32475,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P20" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32548,31 +32548,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J21" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
@@ -32627,7 +32627,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32639,7 +32639,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N22" t="n">
         <v>229.1447054263751</v>
@@ -32651,19 +32651,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -34798,7 +34798,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730635</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35020,7 +35020,7 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730081</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
@@ -35032,7 +35032,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>220.205405775187</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35172,25 +35172,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770689</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35263,16 +35263,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349805</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490663</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K12" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>620.0980502594834</v>
+        <v>408.1301468599572</v>
       </c>
       <c r="M12" t="n">
-        <v>564.1615374009414</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980127</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507407</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349805</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490663</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K15" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>425.9753597058701</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504661</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980127</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O15" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507407</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35889,25 +35889,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>278.7330645958063</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N18" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>676.2260215178377</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q18" t="n">
-        <v>264.7306875349194</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,19 +36041,19 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M19" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O19" t="n">
         <v>236.2373515206029</v>
@@ -36062,7 +36062,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36126,25 +36126,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L21" t="n">
-        <v>345.2951542341712</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504663</v>
+        <v>720.1247453734238</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O21" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,19 +36278,19 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O22" t="n">
         <v>236.2373515206029</v>
@@ -36299,7 +36299,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36436,13 +36436,13 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>429.2814066296115</v>
       </c>
       <c r="M24" t="n">
         <v>310.4243770504663</v>
@@ -36451,13 +36451,13 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>642.8663885318336</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36594,7 +36594,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K26" t="n">
         <v>528.6897561303331</v>
@@ -36691,10 +36691,10 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975091999</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>268.0367344586612</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -37068,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K32" t="n">
         <v>528.6897561303331</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560243</v>
+        <v>278.7330645958064</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N33" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>278.7330645958064</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N36" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>278.7330645958064</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N39" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N42" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>334.8610358541607</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
